--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4552,28 +4552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.0330556855071</v>
+        <v>299.7480111123905</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.3697692348895</v>
+        <v>410.1284527529247</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.9807947676754</v>
+        <v>370.9863688410834</v>
       </c>
       <c r="AD2" t="n">
-        <v>248033.0556855071</v>
+        <v>299748.0111123906</v>
       </c>
       <c r="AE2" t="n">
-        <v>339369.7692348895</v>
+        <v>410128.4527529246</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.481389075078944e-06</v>
+        <v>3.577330327372393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.24537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>306980.7947676755</v>
+        <v>370986.3688410834</v>
       </c>
     </row>
     <row r="3">
@@ -4658,28 +4658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.5700746855847</v>
+        <v>203.1036353760692</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.6450129715455</v>
+        <v>277.8953542214163</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.6325766459166</v>
+        <v>251.3734116431851</v>
       </c>
       <c r="AD3" t="n">
-        <v>168570.0746855847</v>
+        <v>203103.6353760692</v>
       </c>
       <c r="AE3" t="n">
-        <v>230645.0129715455</v>
+        <v>277895.3542214163</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.359916768270625e-06</v>
+        <v>4.843872439552493e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.045138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>208632.5766459166</v>
+        <v>251373.4116431851</v>
       </c>
     </row>
     <row r="4">
@@ -4764,28 +4764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.0012172284817</v>
+        <v>182.4494370643946</v>
       </c>
       <c r="AB4" t="n">
-        <v>202.5017947648038</v>
+        <v>249.6353688924769</v>
       </c>
       <c r="AC4" t="n">
-        <v>183.1753076855625</v>
+        <v>225.8105196508922</v>
       </c>
       <c r="AD4" t="n">
-        <v>148001.2172284817</v>
+        <v>182449.4370643946</v>
       </c>
       <c r="AE4" t="n">
-        <v>202501.7947648038</v>
+        <v>249635.3688924769</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.69487908457721e-06</v>
+        <v>5.326775691075968e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.223379629629632</v>
       </c>
       <c r="AH4" t="n">
-        <v>183175.3076855625</v>
+        <v>225810.5196508922</v>
       </c>
     </row>
     <row r="5">
@@ -4870,28 +4870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.7061646014969</v>
+        <v>168.2396357834304</v>
       </c>
       <c r="AB5" t="n">
-        <v>182.9426731073604</v>
+        <v>230.1928918876828</v>
       </c>
       <c r="AC5" t="n">
-        <v>165.4828811476996</v>
+        <v>208.2236053637416</v>
       </c>
       <c r="AD5" t="n">
-        <v>133706.1646014969</v>
+        <v>168239.6357834304</v>
       </c>
       <c r="AE5" t="n">
-        <v>182942.6731073604</v>
+        <v>230192.8918876828</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.872496292753577e-06</v>
+        <v>5.582840099456713e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.847222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>165482.8811476996</v>
+        <v>208223.6053637416</v>
       </c>
     </row>
     <row r="6">
@@ -4976,28 +4976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>130.3643996919764</v>
+        <v>164.8978708739099</v>
       </c>
       <c r="AB6" t="n">
-        <v>178.370322929894</v>
+        <v>225.6205417102163</v>
       </c>
       <c r="AC6" t="n">
-        <v>161.3469096538353</v>
+        <v>204.0876338698773</v>
       </c>
       <c r="AD6" t="n">
-        <v>130364.3996919764</v>
+        <v>164897.8708739099</v>
       </c>
       <c r="AE6" t="n">
-        <v>178370.322929894</v>
+        <v>225620.5417102163</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.987038909853711e-06</v>
+        <v>5.747972114441458e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.621527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>161346.9096538353</v>
+        <v>204087.6338698773</v>
       </c>
     </row>
     <row r="7">
@@ -5082,28 +5082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>128.183030228878</v>
+        <v>162.5459092102193</v>
       </c>
       <c r="AB7" t="n">
-        <v>175.3856769952554</v>
+        <v>222.402484000731</v>
       </c>
       <c r="AC7" t="n">
-        <v>158.6471141382208</v>
+        <v>201.1767030716118</v>
       </c>
       <c r="AD7" t="n">
-        <v>128183.030228878</v>
+        <v>162545.9092102193</v>
       </c>
       <c r="AE7" t="n">
-        <v>175385.6769952554</v>
+        <v>222402.484000731</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.056888373743294e-06</v>
+        <v>5.848671600883323e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.494212962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>158647.1141382208</v>
+        <v>201176.7030716118</v>
       </c>
     </row>
     <row r="8">
@@ -5188,28 +5188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>126.2566123515343</v>
+        <v>160.6194913328756</v>
       </c>
       <c r="AB8" t="n">
-        <v>172.7498670679165</v>
+        <v>219.7666740733921</v>
       </c>
       <c r="AC8" t="n">
-        <v>156.2628622109638</v>
+        <v>198.7924511443548</v>
       </c>
       <c r="AD8" t="n">
-        <v>126256.6123515343</v>
+        <v>160619.4913328757</v>
       </c>
       <c r="AE8" t="n">
-        <v>172749.8670679165</v>
+        <v>219766.6740733921</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.120540667152447e-06</v>
+        <v>5.940436847174708e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.378472222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>156262.8622109639</v>
+        <v>198792.4511443548</v>
       </c>
     </row>
     <row r="9">
@@ -5294,28 +5294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>124.6235885779788</v>
+        <v>158.9864675593201</v>
       </c>
       <c r="AB9" t="n">
-        <v>170.5154918970146</v>
+        <v>217.5322989024901</v>
       </c>
       <c r="AC9" t="n">
-        <v>154.2417326704069</v>
+        <v>196.7713216037978</v>
       </c>
       <c r="AD9" t="n">
-        <v>124623.5885779788</v>
+        <v>158986.4675593201</v>
       </c>
       <c r="AE9" t="n">
-        <v>170515.4918970146</v>
+        <v>217532.2989024901</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.166389225028842e-06</v>
+        <v>6.006535081508353e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.297453703703703</v>
       </c>
       <c r="AH9" t="n">
-        <v>154241.7326704069</v>
+        <v>196771.3216037978</v>
       </c>
     </row>
     <row r="10">
@@ -5400,28 +5400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>123.7720568318014</v>
+        <v>158.1349358131427</v>
       </c>
       <c r="AB10" t="n">
-        <v>169.3503885949661</v>
+        <v>216.3671956004416</v>
       </c>
       <c r="AC10" t="n">
-        <v>153.1878251922727</v>
+        <v>195.7174141256637</v>
       </c>
       <c r="AD10" t="n">
-        <v>123772.0568318014</v>
+        <v>158134.9358131427</v>
       </c>
       <c r="AE10" t="n">
-        <v>169350.3885949661</v>
+        <v>216367.1956004416</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.185558438803051e-06</v>
+        <v>6.034170654855181e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.262731481481482</v>
       </c>
       <c r="AH10" t="n">
-        <v>153187.8251922727</v>
+        <v>195717.4141256637</v>
       </c>
     </row>
     <row r="11">
@@ -5506,28 +5506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>122.8343403747675</v>
+        <v>148.7345332697687</v>
       </c>
       <c r="AB11" t="n">
-        <v>168.0673635693225</v>
+        <v>203.5051501241127</v>
       </c>
       <c r="AC11" t="n">
-        <v>152.0272502743393</v>
+        <v>184.0829042175973</v>
       </c>
       <c r="AD11" t="n">
-        <v>122834.3403747675</v>
+        <v>148734.5332697687</v>
       </c>
       <c r="AE11" t="n">
-        <v>168067.3635693225</v>
+        <v>203505.1501241127</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.207458609060161e-06</v>
+        <v>6.065743350980188e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>152027.2502743393</v>
+        <v>184082.9042175973</v>
       </c>
     </row>
     <row r="12">
@@ -5612,28 +5612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>121.9480032058412</v>
+        <v>147.8481961008424</v>
       </c>
       <c r="AB12" t="n">
-        <v>166.8546379523619</v>
+        <v>202.2924245071521</v>
       </c>
       <c r="AC12" t="n">
-        <v>150.9302654881899</v>
+        <v>182.985919431448</v>
       </c>
       <c r="AD12" t="n">
-        <v>121948.0032058412</v>
+        <v>147848.1961008424</v>
       </c>
       <c r="AE12" t="n">
-        <v>166854.637952362</v>
+        <v>202292.4245071521</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.227888264288016e-06</v>
+        <v>6.095196057916943e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH12" t="n">
-        <v>150930.2654881899</v>
+        <v>182985.919431448</v>
       </c>
     </row>
     <row r="13">
@@ -5718,28 +5718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>120.6502620582459</v>
+        <v>146.5504549532471</v>
       </c>
       <c r="AB13" t="n">
-        <v>165.0790112619242</v>
+        <v>200.5167978167143</v>
       </c>
       <c r="AC13" t="n">
-        <v>149.3241021169792</v>
+        <v>181.3797560602373</v>
       </c>
       <c r="AD13" t="n">
-        <v>120650.2620582459</v>
+        <v>146550.4549532471</v>
       </c>
       <c r="AE13" t="n">
-        <v>165079.0112619242</v>
+        <v>200516.7978167143</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.253832350875576e-06</v>
+        <v>6.132598724309637e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.14699074074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>149324.1021169793</v>
+        <v>181379.7560602373</v>
       </c>
     </row>
     <row r="14">
@@ -5824,28 +5824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>119.8637457007577</v>
+        <v>145.7639385957589</v>
       </c>
       <c r="AB14" t="n">
-        <v>164.0028648829566</v>
+        <v>199.4406514377468</v>
       </c>
       <c r="AC14" t="n">
-        <v>148.3506616380391</v>
+        <v>180.4063155812972</v>
       </c>
       <c r="AD14" t="n">
-        <v>119863.7457007577</v>
+        <v>145763.9385957589</v>
       </c>
       <c r="AE14" t="n">
-        <v>164002.8648829566</v>
+        <v>199440.6514377468</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.248580511485382e-06</v>
+        <v>6.125027334351602e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.152777777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>148350.6616380391</v>
+        <v>180406.3155812972</v>
       </c>
     </row>
     <row r="15">
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>119.0327700577075</v>
+        <v>144.9329629527087</v>
       </c>
       <c r="AB15" t="n">
-        <v>162.8658873480778</v>
+        <v>198.303673902868</v>
       </c>
       <c r="AC15" t="n">
-        <v>147.3221956433308</v>
+        <v>179.3778495865889</v>
       </c>
       <c r="AD15" t="n">
-        <v>119032.7700577075</v>
+        <v>144932.9629527087</v>
       </c>
       <c r="AE15" t="n">
-        <v>162865.8873480778</v>
+        <v>198303.673902868</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.278988661554606e-06</v>
+        <v>6.168865682208625e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.100694444444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>147322.1956433308</v>
+        <v>179377.8495865889</v>
       </c>
     </row>
     <row r="16">
@@ -6036,28 +6036,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>118.4981308268863</v>
+        <v>144.3983237218875</v>
       </c>
       <c r="AB16" t="n">
-        <v>162.1343703658504</v>
+        <v>197.5721569206406</v>
       </c>
       <c r="AC16" t="n">
-        <v>146.6604936151963</v>
+        <v>178.7161475584544</v>
       </c>
       <c r="AD16" t="n">
-        <v>118498.1308268863</v>
+        <v>144398.3237218875</v>
       </c>
       <c r="AE16" t="n">
-        <v>162134.3703658504</v>
+        <v>197572.1569206406</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.276730370616823e-06</v>
+        <v>6.16560998452667e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.106481481481481</v>
       </c>
       <c r="AH16" t="n">
-        <v>146660.4936151963</v>
+        <v>178716.1475584544</v>
       </c>
     </row>
     <row r="17">
@@ -6142,28 +6142,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>117.8397653763368</v>
+        <v>143.739958271338</v>
       </c>
       <c r="AB17" t="n">
-        <v>161.2335657113753</v>
+        <v>196.6713522661655</v>
       </c>
       <c r="AC17" t="n">
-        <v>145.8456604926568</v>
+        <v>177.9013144359149</v>
       </c>
       <c r="AD17" t="n">
-        <v>117839.7653763368</v>
+        <v>143739.958271338</v>
       </c>
       <c r="AE17" t="n">
-        <v>161233.5657113753</v>
+        <v>196671.3522661655</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.301571570932441e-06</v>
+        <v>6.201422659028175e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8</v>
+        <v>7.065972222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>145845.6604926568</v>
+        <v>177901.3144359149</v>
       </c>
     </row>
     <row r="18">
@@ -6248,28 +6248,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>118.0447568893027</v>
+        <v>143.9449497843038</v>
       </c>
       <c r="AB18" t="n">
-        <v>161.5140441430023</v>
+        <v>196.9518306977925</v>
       </c>
       <c r="AC18" t="n">
-        <v>146.0993704564234</v>
+        <v>178.1550243996814</v>
       </c>
       <c r="AD18" t="n">
-        <v>118044.7568893027</v>
+        <v>143944.9497843038</v>
       </c>
       <c r="AE18" t="n">
-        <v>161514.0441430023</v>
+        <v>196951.8306977925</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.301729126114146e-06</v>
+        <v>6.201649800726915e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8</v>
+        <v>7.065972222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>146099.3704564234</v>
+        <v>178155.0243996814</v>
       </c>
     </row>
   </sheetData>
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.2843180191809</v>
+        <v>243.7035184946268</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.4601310160202</v>
+        <v>333.4459054446297</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.2204272840536</v>
+        <v>301.622296223361</v>
       </c>
       <c r="AD2" t="n">
-        <v>193284.3180191809</v>
+        <v>243703.5184946268</v>
       </c>
       <c r="AE2" t="n">
-        <v>264460.1310160203</v>
+        <v>333445.9054446297</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.919615349747854e-06</v>
+        <v>4.274207039158636e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.76967592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>239220.4272840536</v>
+        <v>301622.296223361</v>
       </c>
     </row>
     <row r="3">
@@ -6651,28 +6651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.2894617856645</v>
+        <v>175.8739046596556</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.6867189830794</v>
+        <v>240.6384353643016</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.1060917679156</v>
+        <v>217.6722408313676</v>
       </c>
       <c r="AD3" t="n">
-        <v>142289.4617856645</v>
+        <v>175873.9046596556</v>
       </c>
       <c r="AE3" t="n">
-        <v>194686.7189830794</v>
+        <v>240638.4353643015</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.729940494270255e-06</v>
+        <v>5.460492567156014e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.431712962962964</v>
       </c>
       <c r="AH3" t="n">
-        <v>176106.0917679156</v>
+        <v>217672.2408313676</v>
       </c>
     </row>
     <row r="4">
@@ -6757,28 +6757,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.4242715046047</v>
+        <v>159.0939657246164</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.6110216008614</v>
+        <v>217.6793826347328</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.2327065569045</v>
+        <v>196.9043678710686</v>
       </c>
       <c r="AD4" t="n">
-        <v>125424.2715046047</v>
+        <v>159093.9657246164</v>
       </c>
       <c r="AE4" t="n">
-        <v>171611.0216008615</v>
+        <v>217679.3826347328</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.03103482554368e-06</v>
+        <v>5.901283341286852e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.800925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>155232.7065569045</v>
+        <v>196904.3678710687</v>
       </c>
     </row>
     <row r="5">
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.1551035961576</v>
+        <v>154.8247978161693</v>
       </c>
       <c r="AB5" t="n">
-        <v>165.7697577261314</v>
+        <v>211.8381187600028</v>
       </c>
       <c r="AC5" t="n">
-        <v>149.9489247081115</v>
+        <v>191.6205860222757</v>
       </c>
       <c r="AD5" t="n">
-        <v>121155.1035961576</v>
+        <v>154824.7978161693</v>
       </c>
       <c r="AE5" t="n">
-        <v>165769.7577261314</v>
+        <v>211838.1187600028</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.192556559011e-06</v>
+        <v>6.137745082804532e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.500000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>149948.9247081115</v>
+        <v>191620.5860222757</v>
       </c>
     </row>
     <row r="6">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.2597957071947</v>
+        <v>151.7588977266142</v>
       </c>
       <c r="AB6" t="n">
-        <v>161.8082697404852</v>
+        <v>207.6432189995097</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.3655155758308</v>
+        <v>187.8260416073439</v>
       </c>
       <c r="AD6" t="n">
-        <v>118259.7957071947</v>
+        <v>151758.8977266142</v>
       </c>
       <c r="AE6" t="n">
-        <v>161808.2697404852</v>
+        <v>207643.2189995097</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.299096794237848e-06</v>
+        <v>6.293715979244549e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.314814814814816</v>
       </c>
       <c r="AH6" t="n">
-        <v>146365.5155758308</v>
+        <v>187826.0416073439</v>
       </c>
     </row>
     <row r="7">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>116.5609957178188</v>
+        <v>141.8133558913786</v>
       </c>
       <c r="AB7" t="n">
-        <v>159.4838966492561</v>
+        <v>194.0352898942081</v>
       </c>
       <c r="AC7" t="n">
-        <v>144.2629773901498</v>
+        <v>175.5168341569995</v>
       </c>
       <c r="AD7" t="n">
-        <v>116560.9957178188</v>
+        <v>141813.3558913786</v>
       </c>
       <c r="AE7" t="n">
-        <v>159483.8966492561</v>
+        <v>194035.2898942081</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.359565576393627e-06</v>
+        <v>6.382240001548343e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.210648148148149</v>
       </c>
       <c r="AH7" t="n">
-        <v>144262.9773901498</v>
+        <v>175516.8341569995</v>
       </c>
     </row>
     <row r="8">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>115.1148586275134</v>
+        <v>140.3672188010731</v>
       </c>
       <c r="AB8" t="n">
-        <v>157.5052280832355</v>
+        <v>192.0566213281874</v>
       </c>
       <c r="AC8" t="n">
-        <v>142.4731501749907</v>
+        <v>173.7270069418404</v>
       </c>
       <c r="AD8" t="n">
-        <v>115114.8586275134</v>
+        <v>140367.2188010731</v>
       </c>
       <c r="AE8" t="n">
-        <v>157505.2280832355</v>
+        <v>192056.6213281874</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.400367063724254e-06</v>
+        <v>6.441971844091153e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.14699074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>142473.1501749907</v>
+        <v>173727.0069418404</v>
       </c>
     </row>
     <row r="9">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>113.8202396678123</v>
+        <v>139.072599841372</v>
       </c>
       <c r="AB9" t="n">
-        <v>155.7338733080157</v>
+        <v>190.2852665529677</v>
       </c>
       <c r="AC9" t="n">
-        <v>140.8708510134054</v>
+        <v>172.1247077802551</v>
       </c>
       <c r="AD9" t="n">
-        <v>113820.2396678123</v>
+        <v>139072.5998413721</v>
       </c>
       <c r="AE9" t="n">
-        <v>155733.8733080158</v>
+        <v>190285.2665529677</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.423620108434653e-06</v>
+        <v>6.476013426791985e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.106481481481481</v>
       </c>
       <c r="AH9" t="n">
-        <v>140870.8510134054</v>
+        <v>172124.7077802551</v>
       </c>
     </row>
     <row r="10">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>112.2991836982703</v>
+        <v>137.5515438718301</v>
       </c>
       <c r="AB10" t="n">
-        <v>153.6526974262361</v>
+        <v>188.204090671188</v>
       </c>
       <c r="AC10" t="n">
-        <v>138.9882996368334</v>
+        <v>170.2421564036831</v>
       </c>
       <c r="AD10" t="n">
-        <v>112299.1836982703</v>
+        <v>137551.5438718301</v>
       </c>
       <c r="AE10" t="n">
-        <v>153652.6974262361</v>
+        <v>188204.090671188</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.469637231962006e-06</v>
+        <v>6.543380764520028e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.037037037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>138988.2996368334</v>
+        <v>170242.1564036831</v>
       </c>
     </row>
     <row r="11">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>111.0636594215216</v>
+        <v>136.3160195950814</v>
       </c>
       <c r="AB11" t="n">
-        <v>151.9621986033052</v>
+        <v>186.5135918482571</v>
       </c>
       <c r="AC11" t="n">
-        <v>137.4591396489325</v>
+        <v>168.7129964157822</v>
       </c>
       <c r="AD11" t="n">
-        <v>111063.6594215216</v>
+        <v>136316.0195950814</v>
       </c>
       <c r="AE11" t="n">
-        <v>151962.1986033052</v>
+        <v>186513.5918482571</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.490880083554916e-06</v>
+        <v>6.574479500118215e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.002314814814814</v>
       </c>
       <c r="AH11" t="n">
-        <v>137459.1396489325</v>
+        <v>168712.9964157822</v>
       </c>
     </row>
     <row r="12">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>110.5110327204759</v>
+        <v>135.7633928940357</v>
       </c>
       <c r="AB12" t="n">
-        <v>151.2060703707655</v>
+        <v>185.7574636157174</v>
       </c>
       <c r="AC12" t="n">
-        <v>136.7751752336735</v>
+        <v>168.0290320005232</v>
       </c>
       <c r="AD12" t="n">
-        <v>110511.0327204759</v>
+        <v>135763.3928940357</v>
       </c>
       <c r="AE12" t="n">
-        <v>151206.0703707655</v>
+        <v>185757.4636157174</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.485718776901908e-06</v>
+        <v>6.566923541341163e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.008101851851851</v>
       </c>
       <c r="AH12" t="n">
-        <v>136775.1752336734</v>
+        <v>168029.0320005231</v>
       </c>
     </row>
   </sheetData>
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.4330442671506</v>
+        <v>145.416947858089</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.572339595861</v>
+        <v>198.9658834023161</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.6292952555337</v>
+        <v>179.9768587408267</v>
       </c>
       <c r="AD2" t="n">
-        <v>114433.0442671506</v>
+        <v>145416.947858089</v>
       </c>
       <c r="AE2" t="n">
-        <v>156572.339595861</v>
+        <v>198965.8834023161</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.305445642505351e-06</v>
+        <v>6.661055842662132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.148148148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>141629.2952555337</v>
+        <v>179976.8587408267</v>
       </c>
     </row>
     <row r="3">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.46868814163899</v>
+        <v>119.7706438529093</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.9927150134901</v>
+        <v>163.8754788273668</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.3955155455767</v>
+        <v>148.2354331288072</v>
       </c>
       <c r="AD3" t="n">
-        <v>96468.688141639</v>
+        <v>119770.6438529093</v>
       </c>
       <c r="AE3" t="n">
-        <v>131992.7150134901</v>
+        <v>163875.4788273668</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.880826661570928e-06</v>
+        <v>7.551241300113043e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>119395.5155455767</v>
+        <v>148235.4331288073</v>
       </c>
     </row>
     <row r="4">
@@ -8114,28 +8114,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.98060000002077</v>
+        <v>115.9644140824081</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.2742059994566</v>
+        <v>158.6676273363634</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.1771589707716</v>
+        <v>143.5246116748381</v>
       </c>
       <c r="AD4" t="n">
-        <v>84980.60000002077</v>
+        <v>115964.4140824081</v>
       </c>
       <c r="AE4" t="n">
-        <v>116274.2059994565</v>
+        <v>158667.6273363634</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.06803312947468e-06</v>
+        <v>7.840872813400203e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.921296296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>105177.1589707716</v>
+        <v>143524.6116748381</v>
       </c>
     </row>
     <row r="5">
@@ -8220,28 +8220,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.75243276633176</v>
+        <v>115.7362468487191</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.9620175242955</v>
+        <v>158.3554388612023</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.8947653255206</v>
+        <v>143.242218029587</v>
       </c>
       <c r="AD5" t="n">
-        <v>84752.43276633177</v>
+        <v>115736.2468487191</v>
       </c>
       <c r="AE5" t="n">
-        <v>115962.0175242955</v>
+        <v>158355.4388612023</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.077490451039767e-06</v>
+        <v>7.855504457206161e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.909722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>104894.7653255206</v>
+        <v>143242.218029587</v>
       </c>
     </row>
   </sheetData>
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.1915682202269</v>
+        <v>173.2135549243777</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.238579636117</v>
+        <v>236.998427490149</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.8459853691501</v>
+        <v>214.3796301999398</v>
       </c>
       <c r="AD2" t="n">
-        <v>133191.5682202269</v>
+        <v>173213.5549243776</v>
       </c>
       <c r="AE2" t="n">
-        <v>182238.579636117</v>
+        <v>236998.427490149</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.753502631458916e-06</v>
+        <v>5.672645887445386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.940972222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>164845.9853691501</v>
+        <v>214379.6301999398</v>
       </c>
     </row>
     <row r="3">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.2164631810437</v>
+        <v>141.3023252280216</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.4347832145379</v>
+        <v>193.3360751955216</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.1729372376186</v>
+        <v>174.8843515278014</v>
       </c>
       <c r="AD3" t="n">
-        <v>109216.4631810437</v>
+        <v>141302.3252280216</v>
       </c>
       <c r="AE3" t="n">
-        <v>149434.7832145379</v>
+        <v>193336.0751955216</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.426614878877946e-06</v>
+        <v>6.689916367052474e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.581018518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>135172.9372376186</v>
+        <v>174884.3515278014</v>
       </c>
     </row>
     <row r="4">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.4371553646265</v>
+        <v>128.501641408411</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.8955234119393</v>
+        <v>175.8216148672254</v>
       </c>
       <c r="AC4" t="n">
-        <v>129.2577752126691</v>
+        <v>159.0414467115328</v>
       </c>
       <c r="AD4" t="n">
-        <v>104437.1553646265</v>
+        <v>128501.641408411</v>
       </c>
       <c r="AE4" t="n">
-        <v>142895.5234119393</v>
+        <v>175821.6148672254</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.657964590661033e-06</v>
+        <v>7.039553791070454e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.204861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>129257.7752126691</v>
+        <v>159041.4467115328</v>
       </c>
     </row>
     <row r="5">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.7781220673588</v>
+        <v>125.8426081111433</v>
       </c>
       <c r="AB5" t="n">
-        <v>139.2573167463495</v>
+        <v>172.1834082016357</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.966793884987</v>
+        <v>155.7504653838507</v>
       </c>
       <c r="AD5" t="n">
-        <v>101778.1220673588</v>
+        <v>125842.6081111433</v>
       </c>
       <c r="AE5" t="n">
-        <v>139257.3167463495</v>
+        <v>172183.4082016357</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.771638552830713e-06</v>
+        <v>7.211348564466102e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH5" t="n">
-        <v>125966.793884987</v>
+        <v>155750.4653838507</v>
       </c>
     </row>
     <row r="6">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>91.28983973754301</v>
+        <v>123.2903609299493</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.9067861523429</v>
+        <v>168.6913110111289</v>
       </c>
       <c r="AC6" t="n">
-        <v>112.9858577897715</v>
+        <v>152.5916490480156</v>
       </c>
       <c r="AD6" t="n">
-        <v>91289.83973754301</v>
+        <v>123290.3609299493</v>
       </c>
       <c r="AE6" t="n">
-        <v>124906.7861523429</v>
+        <v>168691.3110111289</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.861185796499072e-06</v>
+        <v>7.34668077371247e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.903935185185186</v>
       </c>
       <c r="AH6" t="n">
-        <v>112985.8577897715</v>
+        <v>152591.6490480156</v>
       </c>
     </row>
     <row r="7">
@@ -9047,28 +9047,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>90.85306086505734</v>
+        <v>122.8535820574636</v>
       </c>
       <c r="AB7" t="n">
-        <v>124.3091660296844</v>
+        <v>168.0936908884704</v>
       </c>
       <c r="AC7" t="n">
-        <v>112.4452736928543</v>
+        <v>152.0510649510983</v>
       </c>
       <c r="AD7" t="n">
-        <v>90853.06086505734</v>
+        <v>122853.5820574636</v>
       </c>
       <c r="AE7" t="n">
-        <v>124309.1660296844</v>
+        <v>168093.6908884704</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.877540927790833e-06</v>
+        <v>7.371398184986742e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.880787037037038</v>
       </c>
       <c r="AH7" t="n">
-        <v>112445.2736928543</v>
+        <v>152051.0649510983</v>
       </c>
     </row>
   </sheetData>
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.83280102618382</v>
+        <v>124.068047574748</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.3861779749937</v>
+        <v>169.7553761876554</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.1331813402268</v>
+        <v>153.5541613375195</v>
       </c>
       <c r="AD2" t="n">
-        <v>93832.80102618382</v>
+        <v>124068.047574748</v>
       </c>
       <c r="AE2" t="n">
-        <v>128386.1779749937</v>
+        <v>169755.3761876554</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.791986153891029e-06</v>
+        <v>7.57367656611247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.604166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>116133.1813402268</v>
+        <v>153554.1613375195</v>
       </c>
     </row>
     <row r="3">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.61460636615314</v>
+        <v>109.7645120601457</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.932216778671</v>
+        <v>150.1846478691351</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.53587889666893</v>
+        <v>135.8512358620229</v>
       </c>
       <c r="AD3" t="n">
-        <v>79614.60636615314</v>
+        <v>109764.5120601457</v>
       </c>
       <c r="AE3" t="n">
-        <v>108932.216778671</v>
+        <v>150184.647869135</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.22611587128051e-06</v>
+        <v>8.259813370697341e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.97337962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>98535.87889666893</v>
+        <v>135851.2358620229</v>
       </c>
     </row>
     <row r="4">
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.68295291115986</v>
+        <v>109.8328586051524</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.025731536786</v>
+        <v>150.27816262725</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.62046873751818</v>
+        <v>135.9358257028721</v>
       </c>
       <c r="AD4" t="n">
-        <v>79682.95291115985</v>
+        <v>109832.8586051524</v>
       </c>
       <c r="AE4" t="n">
-        <v>109025.731536786</v>
+        <v>150278.16262725</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.250671431800001e-06</v>
+        <v>8.298623139194527e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.938657407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>98620.46873751818</v>
+        <v>135935.8257028721</v>
       </c>
     </row>
   </sheetData>
@@ -9853,28 +9853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.8279110240861</v>
+        <v>253.1989137948382</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.4640489340188</v>
+        <v>346.4379242016481</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.9334449656764</v>
+        <v>313.3743749446266</v>
       </c>
       <c r="AD2" t="n">
-        <v>210827.9110240861</v>
+        <v>253198.9137948382</v>
       </c>
       <c r="AE2" t="n">
-        <v>288464.0489340188</v>
+        <v>346437.9242016481</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.797227726035713e-06</v>
+        <v>4.078039948742116e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.1400462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>260933.4449656764</v>
+        <v>313374.3749446266</v>
       </c>
     </row>
     <row r="3">
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.6023329111381</v>
+        <v>188.8879053187676</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.5877795273948</v>
+        <v>258.4447652032781</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.4439633760739</v>
+        <v>233.7791595418587</v>
       </c>
       <c r="AD3" t="n">
-        <v>146602.3329111381</v>
+        <v>188887.9053187676</v>
       </c>
       <c r="AE3" t="n">
-        <v>200587.7795273948</v>
+        <v>258444.765203278</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.630963435959356e-06</v>
+        <v>5.293531808813175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.582175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>181443.9633760739</v>
+        <v>233779.1595418587</v>
       </c>
     </row>
     <row r="4">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.1630202368632</v>
+        <v>171.363251789921</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.7265425582879</v>
+        <v>234.4667611119735</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.8600093738346</v>
+        <v>212.0895825076806</v>
       </c>
       <c r="AD4" t="n">
-        <v>129163.0202368632</v>
+        <v>171363.251789921</v>
       </c>
       <c r="AE4" t="n">
-        <v>176726.5425582879</v>
+        <v>234466.7611119736</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.929891473511572e-06</v>
+        <v>5.729334896130871e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.92824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>159860.0093738346</v>
+        <v>212089.5825076806</v>
       </c>
     </row>
     <row r="5">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.2106583409665</v>
+        <v>158.1073889507274</v>
       </c>
       <c r="AB5" t="n">
-        <v>169.9505025295384</v>
+        <v>216.3295047680031</v>
       </c>
       <c r="AC5" t="n">
-        <v>153.7306650951949</v>
+        <v>195.6833204533737</v>
       </c>
       <c r="AD5" t="n">
-        <v>124210.6583409665</v>
+        <v>158107.3889507274</v>
       </c>
       <c r="AE5" t="n">
-        <v>169950.5025295384</v>
+        <v>216329.5047680031</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.109937467311034e-06</v>
+        <v>5.991821481864007e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.581018518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>153730.6650951949</v>
+        <v>195683.3204533737</v>
       </c>
     </row>
     <row r="6">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>121.5813696826658</v>
+        <v>155.3075080918344</v>
       </c>
       <c r="AB6" t="n">
-        <v>166.3529937912242</v>
+        <v>212.498584254842</v>
       </c>
       <c r="AC6" t="n">
-        <v>150.4764975417289</v>
+        <v>192.2180176172567</v>
       </c>
       <c r="AD6" t="n">
-        <v>121581.3696826658</v>
+        <v>155307.5080918345</v>
       </c>
       <c r="AE6" t="n">
-        <v>166352.9937912241</v>
+        <v>212498.584254842</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.208736629578382e-06</v>
+        <v>6.135859425889218e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.40162037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>150476.4975417289</v>
+        <v>192218.0176172567</v>
       </c>
     </row>
     <row r="7">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>119.4784878545458</v>
+        <v>153.2046262637145</v>
       </c>
       <c r="AB7" t="n">
-        <v>163.4757381013931</v>
+        <v>209.621328565011</v>
       </c>
       <c r="AC7" t="n">
-        <v>147.8738430966808</v>
+        <v>189.6153631722086</v>
       </c>
       <c r="AD7" t="n">
-        <v>119478.4878545458</v>
+        <v>153204.6262637145</v>
       </c>
       <c r="AE7" t="n">
-        <v>163475.7381013932</v>
+        <v>209621.328565011</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.277922963918187e-06</v>
+        <v>6.236725234103057e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.28587962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>147873.8430966808</v>
+        <v>189615.3631722086</v>
       </c>
     </row>
     <row r="8">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>118.3693161041818</v>
+        <v>143.7919535700535</v>
       </c>
       <c r="AB8" t="n">
-        <v>161.9581203793418</v>
+        <v>196.7424945277387</v>
       </c>
       <c r="AC8" t="n">
-        <v>146.5010646800317</v>
+        <v>177.9656669798923</v>
       </c>
       <c r="AD8" t="n">
-        <v>118369.3161041818</v>
+        <v>143791.9535700535</v>
       </c>
       <c r="AE8" t="n">
-        <v>161958.1203793418</v>
+        <v>196742.4945277387</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.308827987973477e-06</v>
+        <v>6.281781244931652e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.233796296296297</v>
       </c>
       <c r="AH8" t="n">
-        <v>146501.0646800317</v>
+        <v>177965.6669798924</v>
       </c>
     </row>
     <row r="9">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>116.5881692753884</v>
+        <v>142.01080674126</v>
       </c>
       <c r="AB9" t="n">
-        <v>159.5210767095355</v>
+        <v>194.3054508579324</v>
       </c>
       <c r="AC9" t="n">
-        <v>144.2966090376586</v>
+        <v>175.7612113375193</v>
       </c>
       <c r="AD9" t="n">
-        <v>116588.1692753884</v>
+        <v>142010.8067412601</v>
       </c>
       <c r="AE9" t="n">
-        <v>159521.0767095355</v>
+        <v>194305.4508579324</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.360246625556757e-06</v>
+        <v>6.35674377165867e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.14699074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>144296.6090376586</v>
+        <v>175761.2113375193</v>
       </c>
     </row>
     <row r="10">
@@ -10701,28 +10701,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>115.299035881546</v>
+        <v>140.7216733474177</v>
       </c>
       <c r="AB10" t="n">
-        <v>157.7572275275299</v>
+        <v>192.5416016759268</v>
       </c>
       <c r="AC10" t="n">
-        <v>142.7010991460052</v>
+        <v>174.1657014458659</v>
       </c>
       <c r="AD10" t="n">
-        <v>115299.035881546</v>
+        <v>140721.6733474177</v>
       </c>
       <c r="AE10" t="n">
-        <v>157757.2275275299</v>
+        <v>192541.6016759268</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.382698533276367e-06</v>
+        <v>6.389476100082928e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.106481481481481</v>
       </c>
       <c r="AH10" t="n">
-        <v>142701.0991460052</v>
+        <v>174165.7014458659</v>
       </c>
     </row>
     <row r="11">
@@ -10807,28 +10807,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>114.3758138576766</v>
+        <v>139.7984513235483</v>
       </c>
       <c r="AB11" t="n">
-        <v>156.4940344247912</v>
+        <v>191.2784085731881</v>
       </c>
       <c r="AC11" t="n">
-        <v>141.5584634200888</v>
+        <v>173.0230657199495</v>
       </c>
       <c r="AD11" t="n">
-        <v>114375.8138576766</v>
+        <v>139798.4513235483</v>
       </c>
       <c r="AE11" t="n">
-        <v>156494.0344247912</v>
+        <v>191278.4085731881</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.39868946035724e-06</v>
+        <v>6.412789053421068e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>141558.4634200888</v>
+        <v>173023.0657199495</v>
       </c>
     </row>
     <row r="12">
@@ -10913,28 +10913,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>113.0830598983041</v>
+        <v>138.5056973641757</v>
       </c>
       <c r="AB12" t="n">
-        <v>154.725231425299</v>
+        <v>189.5096055736959</v>
       </c>
       <c r="AC12" t="n">
-        <v>139.958472496337</v>
+        <v>171.4230747961978</v>
       </c>
       <c r="AD12" t="n">
-        <v>113083.0598983041</v>
+        <v>138505.6973641758</v>
       </c>
       <c r="AE12" t="n">
-        <v>154725.231425299</v>
+        <v>189509.6055736959</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.423510394311052e-06</v>
+        <v>6.448975152710235e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.042824074074074</v>
       </c>
       <c r="AH12" t="n">
-        <v>139958.472496337</v>
+        <v>171423.0747961978</v>
       </c>
     </row>
     <row r="13">
@@ -11019,28 +11019,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>112.4036755399478</v>
+        <v>137.8263130058195</v>
       </c>
       <c r="AB13" t="n">
-        <v>153.7956677738738</v>
+        <v>188.5800419222707</v>
       </c>
       <c r="AC13" t="n">
-        <v>139.1176250951528</v>
+        <v>170.5822273950135</v>
       </c>
       <c r="AD13" t="n">
-        <v>112403.6755399478</v>
+        <v>137826.3130058195</v>
       </c>
       <c r="AE13" t="n">
-        <v>153795.6677738738</v>
+        <v>188580.0419222707</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.443593275796459e-06</v>
+        <v>6.478253710269583e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.013888888888888</v>
       </c>
       <c r="AH13" t="n">
-        <v>139117.6250951528</v>
+        <v>170582.2273950135</v>
       </c>
     </row>
     <row r="14">
@@ -11125,28 +11125,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>112.582618990302</v>
+        <v>138.0052564561737</v>
       </c>
       <c r="AB14" t="n">
-        <v>154.0405060970762</v>
+        <v>188.8248802454731</v>
       </c>
       <c r="AC14" t="n">
-        <v>139.3390963924216</v>
+        <v>170.8036986922823</v>
       </c>
       <c r="AD14" t="n">
-        <v>112582.618990302</v>
+        <v>138005.2564561737</v>
       </c>
       <c r="AE14" t="n">
-        <v>154040.5060970762</v>
+        <v>188824.8802454731</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.44418553235501e-06</v>
+        <v>6.479117152985811e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.013888888888888</v>
       </c>
       <c r="AH14" t="n">
-        <v>139339.0963924216</v>
+        <v>170803.6986922823</v>
       </c>
     </row>
   </sheetData>
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.97384183069035</v>
+        <v>116.5446975542729</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.0014474078007</v>
+        <v>159.4615967828684</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.6441162868116</v>
+        <v>144.242805791712</v>
       </c>
       <c r="AD2" t="n">
-        <v>86973.84183069035</v>
+        <v>116544.6975542729</v>
       </c>
       <c r="AE2" t="n">
-        <v>119001.4474078007</v>
+        <v>159461.5967828684</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.094244054735882e-06</v>
+        <v>8.162175601786363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.320601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>107644.1162868116</v>
+        <v>144242.805791712</v>
       </c>
     </row>
     <row r="3">
@@ -11528,28 +11528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.16516862943891</v>
+        <v>106.471344081121</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.1584968239339</v>
+        <v>145.6787901559182</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.1679315130528</v>
+        <v>131.775410884943</v>
       </c>
       <c r="AD3" t="n">
-        <v>84165.16862943891</v>
+        <v>106471.344081121</v>
       </c>
       <c r="AE3" t="n">
-        <v>115158.4968239339</v>
+        <v>145678.7901559182</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.316158759068168e-06</v>
+        <v>8.51773508537544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.013888888888888</v>
       </c>
       <c r="AH3" t="n">
-        <v>104167.9315130528</v>
+        <v>131775.410884943</v>
       </c>
     </row>
   </sheetData>
@@ -11825,28 +11825,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.0952348253096</v>
+        <v>203.2612989351736</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.7858514249471</v>
+        <v>278.111076458608</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.6189210434113</v>
+        <v>251.5685456528274</v>
       </c>
       <c r="AD2" t="n">
-        <v>162095.2348253096</v>
+        <v>203261.2989351735</v>
       </c>
       <c r="AE2" t="n">
-        <v>221785.8514249471</v>
+        <v>278111.076458608</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.29509882995235e-06</v>
+        <v>4.89270508152403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.832175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>200618.9210434113</v>
+        <v>251568.5456528274</v>
       </c>
     </row>
     <row r="3">
@@ -11931,28 +11931,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.2955911648343</v>
+        <v>162.290973565555</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.9619790154689</v>
+        <v>222.0536698047346</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.122800667379</v>
+        <v>200.8611792129174</v>
       </c>
       <c r="AD3" t="n">
-        <v>121295.5911648343</v>
+        <v>162290.9735655551</v>
       </c>
       <c r="AE3" t="n">
-        <v>165961.9790154689</v>
+        <v>222053.6698047346</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.05861508790346e-06</v>
+        <v>6.026407003040487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.980324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>150122.800667379</v>
+        <v>200861.1792129175</v>
       </c>
     </row>
     <row r="4">
@@ -12037,28 +12037,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.7906925255721</v>
+        <v>147.5529516128711</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.0616897213605</v>
+        <v>201.8884579734424</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.071942491863</v>
+        <v>182.6205068967448</v>
       </c>
       <c r="AD4" t="n">
-        <v>114790.6925255721</v>
+        <v>147552.9516128711</v>
       </c>
       <c r="AE4" t="n">
-        <v>157061.6897213605</v>
+        <v>201888.4579734424</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.335137838217131e-06</v>
+        <v>6.436999927695275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.471064814814816</v>
       </c>
       <c r="AH4" t="n">
-        <v>142071.942491863</v>
+        <v>182620.5068967448</v>
       </c>
     </row>
     <row r="5">
@@ -12143,28 +12143,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.8674003273593</v>
+        <v>144.6296594146583</v>
       </c>
       <c r="AB5" t="n">
-        <v>153.061912369218</v>
+        <v>197.8886806212999</v>
       </c>
       <c r="AC5" t="n">
-        <v>138.4538982764849</v>
+        <v>179.0024626813667</v>
       </c>
       <c r="AD5" t="n">
-        <v>111867.4003273593</v>
+        <v>144629.6594146583</v>
       </c>
       <c r="AE5" t="n">
-        <v>153061.912369218</v>
+        <v>197888.6806212999</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.458677455614353e-06</v>
+        <v>6.620436888163516e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.262731481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>138453.8982764849</v>
+        <v>179002.4626813667</v>
       </c>
     </row>
     <row r="6">
@@ -12249,28 +12249,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.3527206119577</v>
+        <v>134.0524485864271</v>
       </c>
       <c r="AB6" t="n">
-        <v>149.6212166427679</v>
+        <v>183.4164741325129</v>
       </c>
       <c r="AC6" t="n">
-        <v>135.3415777211193</v>
+        <v>165.9114632679956</v>
       </c>
       <c r="AD6" t="n">
-        <v>109352.7206119577</v>
+        <v>134052.4485864271</v>
       </c>
       <c r="AE6" t="n">
-        <v>149621.2166427679</v>
+        <v>183416.4741325129</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.551654032187431e-06</v>
+        <v>6.758492525380439e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.118055555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>135341.5777211193</v>
+        <v>165911.4632679956</v>
       </c>
     </row>
     <row r="7">
@@ -12355,28 +12355,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>107.5682543942252</v>
+        <v>132.2679823686946</v>
       </c>
       <c r="AB7" t="n">
-        <v>147.1796312385741</v>
+        <v>180.9748887283191</v>
       </c>
       <c r="AC7" t="n">
-        <v>133.1330138011144</v>
+        <v>163.7028993479906</v>
       </c>
       <c r="AD7" t="n">
-        <v>107568.2543942252</v>
+        <v>132267.9823686946</v>
       </c>
       <c r="AE7" t="n">
-        <v>147179.6312385741</v>
+        <v>180974.8887283191</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.611548636000312e-06</v>
+        <v>6.847426620396761e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.025462962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>133133.0138011144</v>
+        <v>163702.8993479906</v>
       </c>
     </row>
     <row r="8">
@@ -12461,28 +12461,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>97.66926259672167</v>
+        <v>130.5167730300412</v>
       </c>
       <c r="AB8" t="n">
-        <v>133.6353939485402</v>
+        <v>178.5788068532713</v>
       </c>
       <c r="AC8" t="n">
-        <v>120.8814195085806</v>
+        <v>161.5354961641746</v>
       </c>
       <c r="AD8" t="n">
-        <v>97669.26259672166</v>
+        <v>130516.7730300412</v>
       </c>
       <c r="AE8" t="n">
-        <v>133635.3939485402</v>
+        <v>178578.8068532713</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.652299357099169e-06</v>
+        <v>6.907935051398518e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.961805555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>120881.4195085806</v>
+        <v>161535.4961641746</v>
       </c>
     </row>
     <row r="9">
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>96.44903249810234</v>
+        <v>129.2965429314219</v>
       </c>
       <c r="AB9" t="n">
-        <v>131.9658212948574</v>
+        <v>176.9092341995886</v>
       </c>
       <c r="AC9" t="n">
-        <v>119.3711885257048</v>
+        <v>160.0252651812989</v>
       </c>
       <c r="AD9" t="n">
-        <v>96449.03249810234</v>
+        <v>129296.5429314219</v>
       </c>
       <c r="AE9" t="n">
-        <v>131965.8212948575</v>
+        <v>176909.2341995886</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.677656605255464e-06</v>
+        <v>6.945586588821316e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>119371.1885257048</v>
+        <v>160025.2651812989</v>
       </c>
     </row>
   </sheetData>
@@ -12864,28 +12864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.7245155684725</v>
+        <v>227.4317948306849</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.1164757880203</v>
+        <v>311.1822152698513</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.8639559935994</v>
+        <v>281.483421391571</v>
       </c>
       <c r="AD2" t="n">
-        <v>185724.5155684725</v>
+        <v>227431.7948306848</v>
       </c>
       <c r="AE2" t="n">
-        <v>254116.4757880203</v>
+        <v>311182.2152698513</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.032138323177388e-06</v>
+        <v>4.458584993034587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>229863.9559935994</v>
+        <v>281483.421391571</v>
       </c>
     </row>
     <row r="3">
@@ -12970,28 +12970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.9907112553602</v>
+        <v>171.3394843959259</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.8049788600311</v>
+        <v>234.4342415149661</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.7856966671351</v>
+        <v>212.0601665353699</v>
       </c>
       <c r="AD3" t="n">
-        <v>137990.7112553602</v>
+        <v>171339.4843959259</v>
       </c>
       <c r="AE3" t="n">
-        <v>188804.9788600311</v>
+        <v>234434.2415149661</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.834309890777867e-06</v>
+        <v>5.638132141594303e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.275462962962964</v>
       </c>
       <c r="AH3" t="n">
-        <v>170785.6966671351</v>
+        <v>212060.1665353699</v>
       </c>
     </row>
     <row r="4">
@@ -13076,28 +13076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.8493515989284</v>
+        <v>155.2833760855148</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.7196584715822</v>
+        <v>212.4655657791664</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.8081682596109</v>
+        <v>192.1881503785579</v>
       </c>
       <c r="AD4" t="n">
-        <v>121849.3515989284</v>
+        <v>155283.3760855148</v>
       </c>
       <c r="AE4" t="n">
-        <v>166719.6584715822</v>
+        <v>212465.5657791664</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.126143263620896e-06</v>
+        <v>6.067256329853994e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.690972222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>150808.1682596109</v>
+        <v>192188.1503785579</v>
       </c>
     </row>
     <row r="5">
@@ -13182,28 +13182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.0211371632111</v>
+        <v>151.2845694492053</v>
       </c>
       <c r="AB5" t="n">
-        <v>161.4817265917351</v>
+        <v>206.9942221244725</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.0701372468912</v>
+        <v>187.2389840831872</v>
       </c>
       <c r="AD5" t="n">
-        <v>118021.1371632111</v>
+        <v>151284.5694492053</v>
       </c>
       <c r="AE5" t="n">
-        <v>161481.7265917351</v>
+        <v>206994.2221244725</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.278339769848937e-06</v>
+        <v>6.291052537788714e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.418981481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>146070.1372468912</v>
+        <v>187238.9840831872</v>
       </c>
     </row>
     <row r="6">
@@ -13288,28 +13288,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.7691125896081</v>
+        <v>149.0325448756022</v>
       </c>
       <c r="AB6" t="n">
-        <v>158.4004072178207</v>
+        <v>203.912902750558</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.2828946693632</v>
+        <v>184.4517415056592</v>
       </c>
       <c r="AD6" t="n">
-        <v>115769.1125896081</v>
+        <v>149032.5448756022</v>
       </c>
       <c r="AE6" t="n">
-        <v>158400.4072178207</v>
+        <v>203912.902750558</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.361650217762593e-06</v>
+        <v>6.413555759357305e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.274305555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>143282.8946693632</v>
+        <v>184451.7415056592</v>
       </c>
     </row>
     <row r="7">
@@ -13394,28 +13394,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>113.8295884458265</v>
+        <v>138.9051963193173</v>
       </c>
       <c r="AB7" t="n">
-        <v>155.7466647185338</v>
+        <v>190.0562176687704</v>
       </c>
       <c r="AC7" t="n">
-        <v>140.8824216296564</v>
+        <v>171.9175190000933</v>
       </c>
       <c r="AD7" t="n">
-        <v>113829.5884458265</v>
+        <v>138905.1963193173</v>
       </c>
       <c r="AE7" t="n">
-        <v>155746.6647185338</v>
+        <v>190056.2176687703</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.419841386450143e-06</v>
+        <v>6.4991225257064e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.181712962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>140882.4216296565</v>
+        <v>171917.5190000933</v>
       </c>
     </row>
     <row r="8">
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>112.2888587539683</v>
+        <v>137.3644666274591</v>
       </c>
       <c r="AB8" t="n">
-        <v>153.6385703819377</v>
+        <v>187.9481233321742</v>
       </c>
       <c r="AC8" t="n">
-        <v>138.9755208578154</v>
+        <v>170.0106182282522</v>
       </c>
       <c r="AD8" t="n">
-        <v>112288.8587539683</v>
+        <v>137364.4666274591</v>
       </c>
       <c r="AE8" t="n">
-        <v>153638.5703819377</v>
+        <v>187948.1233321742</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.4661310625786e-06</v>
+        <v>6.567188831831411e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.106481481481481</v>
       </c>
       <c r="AH8" t="n">
-        <v>138975.5208578154</v>
+        <v>170010.6182282522</v>
       </c>
     </row>
     <row r="9">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>110.7575611224169</v>
+        <v>135.8331689959077</v>
       </c>
       <c r="AB9" t="n">
-        <v>151.5433814063665</v>
+        <v>185.8529343566031</v>
       </c>
       <c r="AC9" t="n">
-        <v>137.0802937774559</v>
+        <v>168.1153911478928</v>
       </c>
       <c r="AD9" t="n">
-        <v>110757.5611224169</v>
+        <v>135833.1689959077</v>
       </c>
       <c r="AE9" t="n">
-        <v>151543.3814063665</v>
+        <v>185852.9343566031</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.512311047531395e-06</v>
+        <v>6.635093843392142e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH9" t="n">
-        <v>137080.2937774559</v>
+        <v>168115.3911478927</v>
       </c>
     </row>
     <row r="10">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>109.4536082035481</v>
+        <v>134.5292160770389</v>
       </c>
       <c r="AB10" t="n">
-        <v>149.7592554964284</v>
+        <v>184.0688084466649</v>
       </c>
       <c r="AC10" t="n">
-        <v>135.4664423403252</v>
+        <v>166.501539710762</v>
       </c>
       <c r="AD10" t="n">
-        <v>109453.6082035481</v>
+        <v>134529.2160770389</v>
       </c>
       <c r="AE10" t="n">
-        <v>149759.2554964283</v>
+        <v>184068.8084466649</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.528929260643863e-06</v>
+        <v>6.65952996988015e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.008101851851851</v>
       </c>
       <c r="AH10" t="n">
-        <v>135466.4423403252</v>
+        <v>166501.539710762</v>
       </c>
     </row>
     <row r="11">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>100.3746778819348</v>
+        <v>133.7233615139495</v>
       </c>
       <c r="AB11" t="n">
-        <v>137.3370624962658</v>
+        <v>182.9662026816523</v>
       </c>
       <c r="AC11" t="n">
-        <v>124.2298060054368</v>
+        <v>165.504165092445</v>
       </c>
       <c r="AD11" t="n">
-        <v>100374.6778819348</v>
+        <v>133723.3615139495</v>
       </c>
       <c r="AE11" t="n">
-        <v>137337.0624962657</v>
+        <v>182966.2026816523</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.555364833977886e-06</v>
+        <v>6.698401959870973e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.967592592592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>124229.8060054368</v>
+        <v>165504.165092445</v>
       </c>
     </row>
     <row r="12">
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>100.5242031853301</v>
+        <v>133.8728868173448</v>
       </c>
       <c r="AB12" t="n">
-        <v>137.5416496129619</v>
+        <v>183.1707897983485</v>
       </c>
       <c r="AC12" t="n">
-        <v>124.4148676148554</v>
+        <v>165.6892267018636</v>
       </c>
       <c r="AD12" t="n">
-        <v>100524.2031853301</v>
+        <v>133872.8868173448</v>
       </c>
       <c r="AE12" t="n">
-        <v>137541.6496129619</v>
+        <v>183170.7897983485</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.555913289856187e-06</v>
+        <v>6.69920843269236e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.967592592592593</v>
       </c>
       <c r="AH12" t="n">
-        <v>124414.8676148553</v>
+        <v>165689.2267018636</v>
       </c>
     </row>
   </sheetData>
@@ -14221,28 +14221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.1616495659792</v>
+        <v>280.6536208159572</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.5490788344848</v>
+        <v>384.0026655642971</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.6243948195105</v>
+        <v>347.3539901139659</v>
       </c>
       <c r="AD2" t="n">
-        <v>229161.6495659792</v>
+        <v>280653.6208159572</v>
       </c>
       <c r="AE2" t="n">
-        <v>313549.0788344848</v>
+        <v>384002.6655642971</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.584126653131107e-06</v>
+        <v>3.738643395491473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.85763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>283624.3948195105</v>
+        <v>347353.9901139659</v>
       </c>
     </row>
     <row r="3">
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.620442983133</v>
+        <v>198.4450781702067</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.9267555788295</v>
+        <v>271.5213107313194</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.6053248710252</v>
+        <v>245.6076979177548</v>
       </c>
       <c r="AD3" t="n">
-        <v>155620.442983133</v>
+        <v>198445.0781702067</v>
       </c>
       <c r="AE3" t="n">
-        <v>212926.7555788295</v>
+        <v>271521.3107313194</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.442149449745787e-06</v>
+        <v>4.980007187725787e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.900462962962964</v>
       </c>
       <c r="AH3" t="n">
-        <v>192605.3248710252</v>
+        <v>245607.6979177548</v>
       </c>
     </row>
     <row r="4">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.1665570706386</v>
+        <v>178.4092865579343</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.255043563579</v>
+        <v>244.1074567306798</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.4292990551193</v>
+        <v>220.8101836673418</v>
       </c>
       <c r="AD4" t="n">
-        <v>144166.5570706386</v>
+        <v>178409.2865579342</v>
       </c>
       <c r="AE4" t="n">
-        <v>197255.043563579</v>
+        <v>244107.4567306798</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.780424725558213e-06</v>
+        <v>5.469414556455875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.101851851851853</v>
       </c>
       <c r="AH4" t="n">
-        <v>178429.2990551193</v>
+        <v>220810.1836673418</v>
       </c>
     </row>
     <row r="5">
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>130.5060038666022</v>
+        <v>164.8339846999184</v>
       </c>
       <c r="AB5" t="n">
-        <v>178.564072008752</v>
+        <v>225.5331298285021</v>
       </c>
       <c r="AC5" t="n">
-        <v>161.5221675925358</v>
+        <v>204.0085644554705</v>
       </c>
       <c r="AD5" t="n">
-        <v>130506.0038666021</v>
+        <v>164833.9846999184</v>
       </c>
       <c r="AE5" t="n">
-        <v>178564.072008752</v>
+        <v>225533.1298285021</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.949297672325292e-06</v>
+        <v>5.713735292958063e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.75462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>161522.1675925358</v>
+        <v>204008.5644554705</v>
       </c>
     </row>
     <row r="6">
@@ -14645,28 +14645,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.7052944953593</v>
+        <v>162.0332753286755</v>
       </c>
       <c r="AB6" t="n">
-        <v>174.7320178884423</v>
+        <v>221.7010757081924</v>
       </c>
       <c r="AC6" t="n">
-        <v>158.0558393391455</v>
+        <v>200.5422362020802</v>
       </c>
       <c r="AD6" t="n">
-        <v>127705.2944953593</v>
+        <v>162033.2753286755</v>
       </c>
       <c r="AE6" t="n">
-        <v>174732.0178884423</v>
+        <v>221701.0757081924</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.045274679375047e-06</v>
+        <v>5.852592188029682e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.575231481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>158055.8393391455</v>
+        <v>200542.2362020802</v>
       </c>
     </row>
     <row r="7">
@@ -14751,28 +14751,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.1696668317727</v>
+        <v>159.3270554644967</v>
       </c>
       <c r="AB7" t="n">
-        <v>171.2626602551273</v>
+        <v>217.9983063000305</v>
       </c>
       <c r="AC7" t="n">
-        <v>154.9175923290789</v>
+        <v>197.1928539093626</v>
       </c>
       <c r="AD7" t="n">
-        <v>125169.6668317727</v>
+        <v>159327.0554644967</v>
       </c>
       <c r="AE7" t="n">
-        <v>171262.6602551274</v>
+        <v>217998.3063000305</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.133628581617761e-06</v>
+        <v>5.980420184651046e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.413194444444446</v>
       </c>
       <c r="AH7" t="n">
-        <v>154917.5923290789</v>
+        <v>197192.8539093626</v>
       </c>
     </row>
     <row r="8">
@@ -14857,28 +14857,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>123.7121886129226</v>
+        <v>157.8695772456467</v>
       </c>
       <c r="AB8" t="n">
-        <v>169.2684742566967</v>
+        <v>216.0041203015999</v>
       </c>
       <c r="AC8" t="n">
-        <v>153.1137286434803</v>
+        <v>195.388990223764</v>
       </c>
       <c r="AD8" t="n">
-        <v>123712.1886129226</v>
+        <v>157869.5772456467</v>
       </c>
       <c r="AE8" t="n">
-        <v>169268.4742566967</v>
+        <v>216004.1203015999</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.174920399322563e-06</v>
+        <v>6.040160051256597e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.337962962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>153113.7286434803</v>
+        <v>195388.990223764</v>
       </c>
     </row>
     <row r="9">
@@ -14963,28 +14963,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>122.2229187263573</v>
+        <v>147.9689938598956</v>
       </c>
       <c r="AB9" t="n">
-        <v>167.2307894959487</v>
+        <v>202.4577053303096</v>
       </c>
       <c r="AC9" t="n">
-        <v>151.2705176563889</v>
+        <v>183.1354260848165</v>
       </c>
       <c r="AD9" t="n">
-        <v>122222.9187263573</v>
+        <v>147968.9938598956</v>
       </c>
       <c r="AE9" t="n">
-        <v>167230.7894959487</v>
+        <v>202457.7053303096</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.221717792721341e-06</v>
+        <v>6.107865233409555e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.256944444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>151270.5176563889</v>
+        <v>183135.4260848165</v>
       </c>
     </row>
     <row r="10">
@@ -15069,28 +15069,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>121.212201404091</v>
+        <v>146.9582765376292</v>
       </c>
       <c r="AB10" t="n">
-        <v>165.8478814659233</v>
+        <v>201.0747973002842</v>
       </c>
       <c r="AC10" t="n">
-        <v>150.019592427825</v>
+        <v>181.8845008562527</v>
       </c>
       <c r="AD10" t="n">
-        <v>121212.201404091</v>
+        <v>146958.2765376292</v>
       </c>
       <c r="AE10" t="n">
-        <v>165847.8814659233</v>
+        <v>201074.7973002842</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.242416639801569e-06</v>
+        <v>6.137811756284901e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>150019.592427825</v>
+        <v>181884.5008562526</v>
       </c>
     </row>
     <row r="11">
@@ -15175,28 +15175,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>119.4811483398656</v>
+        <v>145.2272234734038</v>
       </c>
       <c r="AB11" t="n">
-        <v>163.4793782947799</v>
+        <v>198.7062941291408</v>
       </c>
       <c r="AC11" t="n">
-        <v>147.8771358751197</v>
+        <v>179.7420443035473</v>
       </c>
       <c r="AD11" t="n">
-        <v>119481.1483398656</v>
+        <v>145227.2234734038</v>
       </c>
       <c r="AE11" t="n">
-        <v>163479.3782947799</v>
+        <v>198706.2941291408</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.286778874720319e-06</v>
+        <v>6.201993818099582e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.14699074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>147877.1358751197</v>
+        <v>179742.0443035474</v>
       </c>
     </row>
     <row r="12">
@@ -15281,28 +15281,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>119.07309534199</v>
+        <v>144.8191704755282</v>
       </c>
       <c r="AB12" t="n">
-        <v>162.9210621810591</v>
+        <v>198.14797801542</v>
       </c>
       <c r="AC12" t="n">
-        <v>147.3721046676906</v>
+        <v>179.2370130961183</v>
       </c>
       <c r="AD12" t="n">
-        <v>119073.09534199</v>
+        <v>144819.1704755282</v>
       </c>
       <c r="AE12" t="n">
-        <v>162921.0621810591</v>
+        <v>198147.97801542</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.284555469151599e-06</v>
+        <v>6.198777056051592e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.152777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>147372.1046676906</v>
+        <v>179237.0130961183</v>
       </c>
     </row>
     <row r="13">
@@ -15387,28 +15387,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>117.864254839947</v>
+        <v>143.6103299734852</v>
       </c>
       <c r="AB13" t="n">
-        <v>161.2670732758855</v>
+        <v>196.4939891102464</v>
       </c>
       <c r="AC13" t="n">
-        <v>145.8759701422384</v>
+        <v>177.740878570666</v>
       </c>
       <c r="AD13" t="n">
-        <v>117864.254839947</v>
+        <v>143610.3299734852</v>
       </c>
       <c r="AE13" t="n">
-        <v>161267.0732758855</v>
+        <v>196493.9891102464</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.310230509647533e-06</v>
+        <v>6.235922998748631e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.106481481481481</v>
       </c>
       <c r="AH13" t="n">
-        <v>145875.9701422384</v>
+        <v>177740.878570666</v>
       </c>
     </row>
     <row r="14">
@@ -15493,28 +15493,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>117.0069708977809</v>
+        <v>142.7530460313191</v>
       </c>
       <c r="AB14" t="n">
-        <v>160.0940995655163</v>
+        <v>195.3210153998772</v>
       </c>
       <c r="AC14" t="n">
-        <v>144.8149433965074</v>
+        <v>176.6798518249351</v>
       </c>
       <c r="AD14" t="n">
-        <v>117006.9708977809</v>
+        <v>142753.0460313192</v>
       </c>
       <c r="AE14" t="n">
-        <v>160094.0995655163</v>
+        <v>195321.0153998772</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.330135283310363e-06</v>
+        <v>6.264720678035411e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.077546296296297</v>
       </c>
       <c r="AH14" t="n">
-        <v>144814.9433965074</v>
+        <v>176679.8518249351</v>
       </c>
     </row>
     <row r="15">
@@ -15599,28 +15599,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>116.6936881246589</v>
+        <v>142.4397632581972</v>
       </c>
       <c r="AB15" t="n">
-        <v>159.6654522542705</v>
+        <v>194.8923680886314</v>
       </c>
       <c r="AC15" t="n">
-        <v>144.4272055830365</v>
+        <v>176.2921140114641</v>
       </c>
       <c r="AD15" t="n">
-        <v>116693.6881246589</v>
+        <v>142439.7632581972</v>
       </c>
       <c r="AE15" t="n">
-        <v>159665.4522542705</v>
+        <v>194892.3680886314</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.330399974449495e-06</v>
+        <v>6.265103625898266e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.07175925925926</v>
       </c>
       <c r="AH15" t="n">
-        <v>144427.2055830365</v>
+        <v>176292.1140114641</v>
       </c>
     </row>
     <row r="16">
@@ -15705,28 +15705,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>116.5982668993557</v>
+        <v>142.344342032894</v>
       </c>
       <c r="AB16" t="n">
-        <v>159.5348927241234</v>
+        <v>194.7618085584843</v>
       </c>
       <c r="AC16" t="n">
-        <v>144.3091064712051</v>
+        <v>176.1740148996327</v>
       </c>
       <c r="AD16" t="n">
-        <v>116598.2668993557</v>
+        <v>142344.342032894</v>
       </c>
       <c r="AE16" t="n">
-        <v>159534.8927241234</v>
+        <v>194761.8085584842</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.330929356727763e-06</v>
+        <v>6.265869521623979e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>8</v>
+        <v>7.07175925925926</v>
       </c>
       <c r="AH16" t="n">
-        <v>144309.1064712051</v>
+        <v>176174.0148996327</v>
       </c>
     </row>
   </sheetData>
@@ -16002,28 +16002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.676352061879</v>
+        <v>180.0596785032253</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.0572999118185</v>
+        <v>246.3655958003798</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.7732347974935</v>
+        <v>222.8528091135484</v>
       </c>
       <c r="AD2" t="n">
-        <v>147676.3520618789</v>
+        <v>180059.6785032253</v>
       </c>
       <c r="AE2" t="n">
-        <v>202057.2999118185</v>
+        <v>246365.5958003798</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.600574566720582e-06</v>
+        <v>5.406927428529356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.207175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>182773.2347974935</v>
+        <v>222852.8091135484</v>
       </c>
     </row>
     <row r="3">
@@ -16108,28 +16108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.3158860399663</v>
+        <v>145.6991229727616</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.0437944238855</v>
+        <v>199.3519678428984</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.2466322894445</v>
+        <v>180.3260958242728</v>
       </c>
       <c r="AD3" t="n">
-        <v>113315.8860399663</v>
+        <v>145699.1229727616</v>
       </c>
       <c r="AE3" t="n">
-        <v>155043.7944238855</v>
+        <v>199351.9678428984</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.297391610944115e-06</v>
+        <v>6.453326862637051e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.71412037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>140246.6322894445</v>
+        <v>180326.0958242728</v>
       </c>
     </row>
     <row r="4">
@@ -16214,28 +16214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.9303085709102</v>
+        <v>140.1429533031133</v>
       </c>
       <c r="AB4" t="n">
-        <v>147.6750097358173</v>
+        <v>191.7497713799833</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.5811140698489</v>
+        <v>173.4494423220262</v>
       </c>
       <c r="AD4" t="n">
-        <v>107930.3085709102</v>
+        <v>140142.9533031133</v>
       </c>
       <c r="AE4" t="n">
-        <v>147675.0097358173</v>
+        <v>191749.7713799833</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.549613379889659e-06</v>
+        <v>6.832084412387219e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.28587962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>133581.1140698489</v>
+        <v>173449.4423220262</v>
       </c>
     </row>
     <row r="5">
@@ -16320,28 +16320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>105.1416816446653</v>
+        <v>129.4291988528128</v>
       </c>
       <c r="AB5" t="n">
-        <v>143.8594873497938</v>
+        <v>177.0907398836018</v>
       </c>
       <c r="AC5" t="n">
-        <v>130.129739785227</v>
+        <v>160.1894482175748</v>
       </c>
       <c r="AD5" t="n">
-        <v>105141.6816446653</v>
+        <v>129429.1988528129</v>
       </c>
       <c r="AE5" t="n">
-        <v>143859.4873497938</v>
+        <v>177090.7398836018</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.666847249333695e-06</v>
+        <v>7.008132710375093e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.100694444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>130129.739785227</v>
+        <v>160189.4482175748</v>
       </c>
     </row>
     <row r="6">
@@ -16426,28 +16426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>94.85970918387879</v>
+        <v>127.1576052621025</v>
       </c>
       <c r="AB6" t="n">
-        <v>129.7912390203418</v>
+        <v>173.9826453171571</v>
       </c>
       <c r="AC6" t="n">
-        <v>117.4041453314229</v>
+        <v>157.3779858343124</v>
       </c>
       <c r="AD6" t="n">
-        <v>94859.70918387879</v>
+        <v>127157.6052621025</v>
       </c>
       <c r="AE6" t="n">
-        <v>129791.2390203418</v>
+        <v>173982.6453171571</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.746740384592331e-06</v>
+        <v>7.128107002359988e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.984953703703703</v>
       </c>
       <c r="AH6" t="n">
-        <v>117404.1453314229</v>
+        <v>157377.9858343124</v>
       </c>
     </row>
     <row r="7">
@@ -16532,28 +16532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>93.18796020423596</v>
+        <v>125.4858562824596</v>
       </c>
       <c r="AB7" t="n">
-        <v>127.5038783140358</v>
+        <v>171.6952846108511</v>
       </c>
       <c r="AC7" t="n">
-        <v>115.3350871205951</v>
+        <v>155.3089276234846</v>
       </c>
       <c r="AD7" t="n">
-        <v>93187.96020423596</v>
+        <v>125485.8562824596</v>
       </c>
       <c r="AE7" t="n">
-        <v>127503.8783140358</v>
+        <v>171695.2846108511</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.791354543994824e-06</v>
+        <v>7.195103399102808e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.91550925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>115335.0871205951</v>
+        <v>155308.9276234846</v>
       </c>
     </row>
     <row r="8">
@@ -16638,28 +16638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>92.83399127425038</v>
+        <v>125.1318873524741</v>
       </c>
       <c r="AB8" t="n">
-        <v>127.0195624080228</v>
+        <v>171.210968704838</v>
       </c>
       <c r="AC8" t="n">
-        <v>114.8969936449101</v>
+        <v>154.8708341477997</v>
       </c>
       <c r="AD8" t="n">
-        <v>92833.99127425038</v>
+        <v>125131.8873524741</v>
       </c>
       <c r="AE8" t="n">
-        <v>127019.5624080228</v>
+        <v>171210.968704838</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.811456687705061e-06</v>
+        <v>7.225290479021588e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.886574074074075</v>
       </c>
       <c r="AH8" t="n">
-        <v>114896.9936449101</v>
+        <v>154870.8341477996</v>
       </c>
     </row>
   </sheetData>
@@ -16935,28 +16935,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.6610570510895</v>
+        <v>152.0085736733902</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.0937814473742</v>
+        <v>207.9848366448139</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.33746265666</v>
+        <v>188.1350557440438</v>
       </c>
       <c r="AD2" t="n">
-        <v>120661.0570510895</v>
+        <v>152008.5736733902</v>
       </c>
       <c r="AE2" t="n">
-        <v>165093.7814473742</v>
+        <v>207984.8366448139</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.105507411794843e-06</v>
+        <v>6.296808645350173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.408564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>149337.46265666</v>
+        <v>188135.0557440438</v>
       </c>
     </row>
     <row r="3">
@@ -17041,28 +17041,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.9416179957401</v>
+        <v>132.2037937634692</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.1127749716063</v>
+        <v>180.8870630468484</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.9314855708504</v>
+        <v>163.6234556262954</v>
       </c>
       <c r="AD3" t="n">
-        <v>100941.6179957401</v>
+        <v>132203.7937634692</v>
       </c>
       <c r="AE3" t="n">
-        <v>138112.7749716063</v>
+        <v>180887.0630468484</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.712462458550063e-06</v>
+        <v>7.227723975028348e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.326388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>124931.4855708504</v>
+        <v>163623.4556262954</v>
       </c>
     </row>
     <row r="4">
@@ -17147,28 +17147,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.03757926307341</v>
+        <v>120.6122447478654</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.7710969435412</v>
+        <v>165.0269943006563</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.0996097966899</v>
+        <v>149.2770495814885</v>
       </c>
       <c r="AD4" t="n">
-        <v>97037.57926307341</v>
+        <v>120612.2447478655</v>
       </c>
       <c r="AE4" t="n">
-        <v>132771.0969435412</v>
+        <v>165026.9943006563</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.912672910379287e-06</v>
+        <v>7.534796104613562e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.025462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>120099.6097966899</v>
+        <v>149277.0495814885</v>
       </c>
     </row>
     <row r="5">
@@ -17253,28 +17253,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.62925877870491</v>
+        <v>117.9766858924546</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.5299736741431</v>
+        <v>161.4209064020344</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.2176393445766</v>
+        <v>146.0151216507338</v>
       </c>
       <c r="AD5" t="n">
-        <v>86629.25877870491</v>
+        <v>117976.6858924546</v>
       </c>
       <c r="AE5" t="n">
-        <v>118529.9736741431</v>
+        <v>161420.9064020344</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.012300876575592e-06</v>
+        <v>7.687600173864845e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.886574074074075</v>
       </c>
       <c r="AH5" t="n">
-        <v>107217.6393445766</v>
+        <v>146015.1216507338</v>
       </c>
     </row>
     <row r="6">
@@ -17359,28 +17359,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.8713002426118</v>
+        <v>118.2187273563615</v>
       </c>
       <c r="AB6" t="n">
-        <v>118.8611454831761</v>
+        <v>161.7520782110674</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.5172045809582</v>
+        <v>146.3146868871153</v>
       </c>
       <c r="AD6" t="n">
-        <v>86871.30024261179</v>
+        <v>118218.7273563615</v>
       </c>
       <c r="AE6" t="n">
-        <v>118861.1454831761</v>
+        <v>161752.0782110674</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.009258345871393e-06</v>
+        <v>7.682933702288905e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.892361111111112</v>
       </c>
       <c r="AH6" t="n">
-        <v>107517.2045809581</v>
+        <v>146314.6868871153</v>
       </c>
     </row>
   </sheetData>
@@ -31997,28 +31997,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.1856837616046</v>
+        <v>130.8587241219698</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.0784724029979</v>
+        <v>179.0466794230653</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.9958953877369</v>
+        <v>161.9587156325709</v>
       </c>
       <c r="AD2" t="n">
-        <v>100185.6837616046</v>
+        <v>130858.7241219698</v>
       </c>
       <c r="AE2" t="n">
-        <v>137078.4724029979</v>
+        <v>179046.6794230653</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.539539258029863e-06</v>
+        <v>7.092940546600365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.864583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>123995.8953877369</v>
+        <v>161958.7156325709</v>
       </c>
     </row>
     <row r="3">
@@ -32103,28 +32103,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.7865584412756</v>
+        <v>114.7914282201006</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.5864185964721</v>
+        <v>157.062696331071</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.6006270673034</v>
+        <v>142.0728530321554</v>
       </c>
       <c r="AD3" t="n">
-        <v>91786.5584412756</v>
+        <v>114791.4282201006</v>
       </c>
       <c r="AE3" t="n">
-        <v>125586.4185964721</v>
+        <v>157062.696331071</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.059100168501096e-06</v>
+        <v>7.904744220682782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.060185185185184</v>
       </c>
       <c r="AH3" t="n">
-        <v>113600.6270673034</v>
+        <v>142072.8530321554</v>
       </c>
     </row>
     <row r="4">
@@ -32209,28 +32209,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.31394753340361</v>
+        <v>112.9016470391972</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.6255744502289</v>
+        <v>154.4770143480986</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.8767476957145</v>
+        <v>139.7339449086097</v>
       </c>
       <c r="AD4" t="n">
-        <v>82313.94753340361</v>
+        <v>112901.6470391972</v>
       </c>
       <c r="AE4" t="n">
-        <v>112625.5744502289</v>
+        <v>154477.0143480986</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.156483125707843e-06</v>
+        <v>8.056903170403895e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>101876.7476957145</v>
+        <v>139733.9449086097</v>
       </c>
     </row>
   </sheetData>
@@ -32506,28 +32506,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.66954705005236</v>
+        <v>102.5449050360972</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.3756331630796</v>
+        <v>140.306463032254</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.84153764719757</v>
+        <v>126.9158111218511</v>
       </c>
       <c r="AD2" t="n">
-        <v>80669.54705005235</v>
+        <v>102544.9050360972</v>
       </c>
       <c r="AE2" t="n">
-        <v>110375.6331630796</v>
+        <v>140306.463032254</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.335239189667564e-06</v>
+        <v>8.69471197175767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>99841.53764719758</v>
+        <v>126915.8111218511</v>
       </c>
     </row>
     <row r="3">
@@ -32612,28 +32612,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.89851313762053</v>
+        <v>102.7738711236654</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.688914665361</v>
+        <v>140.6197445345355</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.1249200025948</v>
+        <v>127.1991934772483</v>
       </c>
       <c r="AD3" t="n">
-        <v>80898.51313762052</v>
+        <v>102773.8711236654</v>
       </c>
       <c r="AE3" t="n">
-        <v>110688.914665361</v>
+        <v>140619.7445345355</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.343585022436819e-06</v>
+        <v>8.708312976232533e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.175925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>100124.9200025948</v>
+        <v>127199.1934772483</v>
       </c>
     </row>
   </sheetData>
@@ -32909,28 +32909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.7164325625934</v>
+        <v>219.1171594126782</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.1594633276939</v>
+        <v>299.8057642751143</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.9526654242195</v>
+        <v>271.1927229128188</v>
       </c>
       <c r="AD2" t="n">
-        <v>177716.4325625934</v>
+        <v>219117.1594126782</v>
       </c>
       <c r="AE2" t="n">
-        <v>243159.4633276939</v>
+        <v>299805.7642751143</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.164718849544299e-06</v>
+        <v>4.675494880805789e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.12731481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>219952.6654242195</v>
+        <v>271192.7229128188</v>
       </c>
     </row>
     <row r="3">
@@ -33015,28 +33015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.5255851102034</v>
+        <v>166.6291163210672</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.6955962807679</v>
+        <v>227.9893081081744</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.2593849866625</v>
+        <v>206.2303285273995</v>
       </c>
       <c r="AD3" t="n">
-        <v>133525.5851102034</v>
+        <v>166629.1163210672</v>
       </c>
       <c r="AE3" t="n">
-        <v>182695.5962807679</v>
+        <v>227989.3081081744</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.955067665362021e-06</v>
+        <v>5.843141050366402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.107638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>165259.3849866625</v>
+        <v>206230.3285273995</v>
       </c>
     </row>
     <row r="4">
@@ -33121,28 +33121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.6460557881128</v>
+        <v>151.8348383449972</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.3367678237892</v>
+        <v>207.7471243038449</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.8435745438161</v>
+        <v>187.9200303352654</v>
       </c>
       <c r="AD4" t="n">
-        <v>118646.0557881128</v>
+        <v>151834.8383449972</v>
       </c>
       <c r="AE4" t="n">
-        <v>162336.7678237892</v>
+        <v>207747.1243038449</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.214473574001942e-06</v>
+        <v>6.226382360434552e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.604166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>146843.5745438162</v>
+        <v>187920.0303352654</v>
       </c>
     </row>
     <row r="5">
@@ -33227,28 +33227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.8660418440399</v>
+        <v>147.884232200332</v>
       </c>
       <c r="AB5" t="n">
-        <v>157.1647859830655</v>
+        <v>202.3417306882743</v>
       </c>
       <c r="AC5" t="n">
-        <v>142.1651993910474</v>
+        <v>183.0305198998456</v>
       </c>
       <c r="AD5" t="n">
-        <v>114866.0418440399</v>
+        <v>147884.232200332</v>
       </c>
       <c r="AE5" t="n">
-        <v>157164.7859830655</v>
+        <v>202341.7306882743</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.371789990943511e-06</v>
+        <v>6.458798615098986e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.332175925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>142165.1993910474</v>
+        <v>183030.5198998456</v>
       </c>
     </row>
     <row r="6">
@@ -33333,28 +33333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.7574675960125</v>
+        <v>137.6491440222268</v>
       </c>
       <c r="AB6" t="n">
-        <v>154.2797416731853</v>
+        <v>188.3376315027755</v>
       </c>
       <c r="AC6" t="n">
-        <v>139.5554996609161</v>
+        <v>170.3629522857296</v>
       </c>
       <c r="AD6" t="n">
-        <v>112757.4675960125</v>
+        <v>137649.1440222268</v>
       </c>
       <c r="AE6" t="n">
-        <v>154279.7416731853</v>
+        <v>188337.6315027755</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.448564833859363e-06</v>
+        <v>6.572224294311981e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.204861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>139555.4996609161</v>
+        <v>170362.9522857296</v>
       </c>
     </row>
     <row r="7">
@@ -33439,28 +33439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>110.9910201325228</v>
+        <v>135.8826965587371</v>
       </c>
       <c r="AB7" t="n">
-        <v>151.8628103234779</v>
+        <v>185.920700153068</v>
       </c>
       <c r="AC7" t="n">
-        <v>137.3692368470395</v>
+        <v>168.1766894718531</v>
       </c>
       <c r="AD7" t="n">
-        <v>110991.0201325228</v>
+        <v>135882.6965587371</v>
       </c>
       <c r="AE7" t="n">
-        <v>151862.8103234779</v>
+        <v>185920.700153068</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.510549717858524e-06</v>
+        <v>6.663799572118143e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.106481481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>137369.2368470395</v>
+        <v>168176.6894718531</v>
       </c>
     </row>
     <row r="8">
@@ -33545,28 +33545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>109.3144748346255</v>
+        <v>134.2061512608397</v>
       </c>
       <c r="AB8" t="n">
-        <v>149.5688870829374</v>
+        <v>183.6267769125276</v>
       </c>
       <c r="AC8" t="n">
-        <v>135.2942424210341</v>
+        <v>166.1016950458475</v>
       </c>
       <c r="AD8" t="n">
-        <v>109314.4748346255</v>
+        <v>134206.1512608397</v>
       </c>
       <c r="AE8" t="n">
-        <v>149568.8870829374</v>
+        <v>183626.7769125276</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.554199484249354e-06</v>
+        <v>6.728286899116586e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.037037037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>135294.2424210341</v>
+        <v>166101.6950458476</v>
       </c>
     </row>
     <row r="9">
@@ -33651,28 +33651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>98.97267890418806</v>
+        <v>132.0761206065008</v>
       </c>
       <c r="AB9" t="n">
-        <v>135.418785643084</v>
+        <v>180.7123750009421</v>
       </c>
       <c r="AC9" t="n">
-        <v>122.4946068028036</v>
+        <v>163.465439562314</v>
       </c>
       <c r="AD9" t="n">
-        <v>98972.67890418805</v>
+        <v>132076.1206065008</v>
       </c>
       <c r="AE9" t="n">
-        <v>135418.785643084</v>
+        <v>180712.3750009421</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.60311159557309e-06</v>
+        <v>6.800548713506972e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.961805555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>122494.6068028036</v>
+        <v>163465.439562314</v>
       </c>
     </row>
     <row r="10">
@@ -33757,28 +33757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>98.60422658155025</v>
+        <v>131.7076682838629</v>
       </c>
       <c r="AB10" t="n">
-        <v>134.9146529202819</v>
+        <v>180.20824227814</v>
       </c>
       <c r="AC10" t="n">
-        <v>122.0385877995109</v>
+        <v>163.0094205590214</v>
       </c>
       <c r="AD10" t="n">
-        <v>98604.22658155025</v>
+        <v>131707.6682838629</v>
       </c>
       <c r="AE10" t="n">
-        <v>134914.6529202819</v>
+        <v>180208.24227814</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.596962960967274e-06</v>
+        <v>6.791464838764805e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.97337962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>122038.5877995109</v>
+        <v>163009.4205590214</v>
       </c>
     </row>
     <row r="11">
@@ -33863,28 +33863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>98.68186019136276</v>
+        <v>131.7853018936755</v>
       </c>
       <c r="AB11" t="n">
-        <v>135.0208746501805</v>
+        <v>180.3144640080386</v>
       </c>
       <c r="AC11" t="n">
-        <v>122.1346718765911</v>
+        <v>163.1055046361016</v>
       </c>
       <c r="AD11" t="n">
-        <v>98681.86019136276</v>
+        <v>131785.3018936755</v>
       </c>
       <c r="AE11" t="n">
-        <v>135020.8746501805</v>
+        <v>180314.4640080386</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.596741388549047e-06</v>
+        <v>6.79113749192725e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.97337962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>122134.6718765911</v>
+        <v>163105.5046361016</v>
       </c>
     </row>
   </sheetData>
@@ -34160,28 +34160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.4821264673805</v>
+        <v>271.6560235116231</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.6733724174535</v>
+        <v>371.6917559865293</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.8820891552583</v>
+        <v>336.2180164678301</v>
       </c>
       <c r="AD2" t="n">
-        <v>220482.1264673805</v>
+        <v>271656.0235116231</v>
       </c>
       <c r="AE2" t="n">
-        <v>301673.3724174535</v>
+        <v>371691.7559865293</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.680190788426402e-06</v>
+        <v>3.892090018926584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.52777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>272882.0891552583</v>
+        <v>336218.01646783</v>
       </c>
     </row>
     <row r="3">
@@ -34266,28 +34266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.6854710361374</v>
+        <v>193.2450443850984</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.1745092453568</v>
+        <v>264.4063950972381</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.4975034507797</v>
+        <v>239.1718198459412</v>
       </c>
       <c r="AD3" t="n">
-        <v>150685.4710361374</v>
+        <v>193245.0443850984</v>
       </c>
       <c r="AE3" t="n">
-        <v>206174.5092453568</v>
+        <v>264406.3950972381</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.542147747091028e-06</v>
+        <v>5.143797207105001e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.721064814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>186497.5034507797</v>
+        <v>239171.8198459412</v>
       </c>
     </row>
     <row r="4">
@@ -34372,28 +34372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>140.7518833801959</v>
+        <v>174.7825633970014</v>
       </c>
       <c r="AB4" t="n">
-        <v>192.5829363755464</v>
+        <v>239.1452141021603</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.2030912197674</v>
+        <v>216.3215305107354</v>
       </c>
       <c r="AD4" t="n">
-        <v>140751.8833801959</v>
+        <v>174782.5633970014</v>
       </c>
       <c r="AE4" t="n">
-        <v>192582.9363755464</v>
+        <v>239145.2141021603</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.857935297714011e-06</v>
+        <v>5.602374103641013e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.00925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>174203.0912197674</v>
+        <v>216321.5305107353</v>
       </c>
     </row>
     <row r="5">
@@ -34478,28 +34478,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.4607474686218</v>
+        <v>161.576678831448</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.3974178578069</v>
+        <v>221.0763402370702</v>
       </c>
       <c r="AC5" t="n">
-        <v>157.7531730658197</v>
+        <v>199.9771246074999</v>
       </c>
       <c r="AD5" t="n">
-        <v>127460.7474686218</v>
+        <v>161576.678831448</v>
       </c>
       <c r="AE5" t="n">
-        <v>174397.417857807</v>
+        <v>221076.3402370702</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.023942613879913e-06</v>
+        <v>5.843444784544832e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.679398148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>157753.1730658197</v>
+        <v>199977.1246074999</v>
       </c>
     </row>
     <row r="6">
@@ -34584,28 +34584,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>124.5842785424146</v>
+        <v>158.5296177046485</v>
       </c>
       <c r="AB6" t="n">
-        <v>170.4617061721193</v>
+        <v>216.9072167765356</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.1930801796068</v>
+        <v>196.205896438636</v>
       </c>
       <c r="AD6" t="n">
-        <v>124584.2785424146</v>
+        <v>158529.6177046485</v>
       </c>
       <c r="AE6" t="n">
-        <v>170461.7061721193</v>
+        <v>216907.2167765356</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.127924045356175e-06</v>
+        <v>5.994443397535392e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.482638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>154193.0801796068</v>
+        <v>196205.896438636</v>
       </c>
     </row>
     <row r="7">
@@ -34690,28 +34690,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>122.530625152595</v>
+        <v>156.475964314829</v>
       </c>
       <c r="AB7" t="n">
-        <v>167.6518070033764</v>
+        <v>214.0973176077927</v>
       </c>
       <c r="AC7" t="n">
-        <v>151.6513538438095</v>
+        <v>193.6641701028387</v>
       </c>
       <c r="AD7" t="n">
-        <v>122530.625152595</v>
+        <v>156475.9643148289</v>
       </c>
       <c r="AE7" t="n">
-        <v>167651.8070033764</v>
+        <v>214097.3176077927</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.192778993633208e-06</v>
+        <v>6.088623743933508e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.366898148148149</v>
       </c>
       <c r="AH7" t="n">
-        <v>151651.3538438095</v>
+        <v>193664.1701028387</v>
       </c>
     </row>
     <row r="8">
@@ -34796,28 +34796,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>120.8481586316333</v>
+        <v>154.7934977938672</v>
       </c>
       <c r="AB8" t="n">
-        <v>165.3497820842133</v>
+        <v>211.7952926886296</v>
       </c>
       <c r="AC8" t="n">
-        <v>149.5690309520184</v>
+        <v>191.5818472110476</v>
       </c>
       <c r="AD8" t="n">
-        <v>120848.1586316333</v>
+        <v>154793.4977938672</v>
       </c>
       <c r="AE8" t="n">
-        <v>165349.7820842133</v>
+        <v>211795.2926886296</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.252776493109245e-06</v>
+        <v>6.175750253687815e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.262731481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>149569.0309520184</v>
+        <v>191581.8472110476</v>
       </c>
     </row>
     <row r="9">
@@ -34902,28 +34902,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>119.6249322595416</v>
+        <v>145.2119702902122</v>
       </c>
       <c r="AB9" t="n">
-        <v>163.6761097969794</v>
+        <v>198.6854240509752</v>
       </c>
       <c r="AC9" t="n">
-        <v>148.0550915988638</v>
+        <v>179.7231660363505</v>
       </c>
       <c r="AD9" t="n">
-        <v>119624.9322595416</v>
+        <v>145211.9702902122</v>
       </c>
       <c r="AE9" t="n">
-        <v>163676.1097969794</v>
+        <v>198685.4240509752</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.275622516041401e-06</v>
+        <v>6.208926540320237e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>148055.0915988638</v>
+        <v>179723.1660363505</v>
       </c>
     </row>
     <row r="10">
@@ -35008,28 +35008,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>118.2110064130414</v>
+        <v>143.7980444437121</v>
       </c>
       <c r="AB10" t="n">
-        <v>161.7415140757928</v>
+        <v>196.7508283297886</v>
       </c>
       <c r="AC10" t="n">
-        <v>146.3051309780845</v>
+        <v>177.9732054155712</v>
       </c>
       <c r="AD10" t="n">
-        <v>118211.0064130414</v>
+        <v>143798.044443712</v>
       </c>
       <c r="AE10" t="n">
-        <v>161741.5140757929</v>
+        <v>196750.8283297886</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.321688211813482e-06</v>
+        <v>6.275821716403837e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.14699074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>146305.1309780845</v>
+        <v>177973.2054155712</v>
       </c>
     </row>
     <row r="11">
@@ -35114,28 +35114,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>117.1774807334251</v>
+        <v>142.7645187640957</v>
       </c>
       <c r="AB11" t="n">
-        <v>160.3273986450075</v>
+        <v>195.3367128990033</v>
       </c>
       <c r="AC11" t="n">
-        <v>145.0259767392894</v>
+        <v>176.6940511767761</v>
       </c>
       <c r="AD11" t="n">
-        <v>117177.4807334251</v>
+        <v>142764.5187640957</v>
       </c>
       <c r="AE11" t="n">
-        <v>160327.3986450075</v>
+        <v>195336.7128990033</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.345388291677682e-06</v>
+        <v>6.310238238050556e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.106481481481481</v>
       </c>
       <c r="AH11" t="n">
-        <v>145025.9767392894</v>
+        <v>176694.0511767761</v>
       </c>
     </row>
     <row r="12">
@@ -35220,28 +35220,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>115.854186705978</v>
+        <v>141.4412247366486</v>
       </c>
       <c r="AB12" t="n">
-        <v>158.516809377043</v>
+        <v>193.5261236310388</v>
       </c>
       <c r="AC12" t="n">
-        <v>143.3881875698809</v>
+        <v>175.0562620073676</v>
       </c>
       <c r="AD12" t="n">
-        <v>115854.186705978</v>
+        <v>141441.2247366486</v>
       </c>
       <c r="AE12" t="n">
-        <v>158516.809377043</v>
+        <v>193526.1236310388</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.368554585959354e-06</v>
+        <v>6.34387961281334e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.07175925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>143388.1875698809</v>
+        <v>175056.2620073676</v>
       </c>
     </row>
     <row r="13">
@@ -35326,28 +35326,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>114.5972404075713</v>
+        <v>140.184278438242</v>
       </c>
       <c r="AB13" t="n">
-        <v>156.7969999990069</v>
+        <v>191.8063142530027</v>
       </c>
       <c r="AC13" t="n">
-        <v>141.8325143851164</v>
+        <v>173.500588822603</v>
       </c>
       <c r="AD13" t="n">
-        <v>114597.2404075713</v>
+        <v>140184.278438242</v>
       </c>
       <c r="AE13" t="n">
-        <v>156796.9999990069</v>
+        <v>191806.3142530027</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.385795860274978e-06</v>
+        <v>6.368916857164444e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.042824074074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>141832.5143851163</v>
+        <v>173500.5888226031</v>
       </c>
     </row>
     <row r="14">
@@ -35432,28 +35432,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>114.7160306188548</v>
+        <v>140.3030686495254</v>
       </c>
       <c r="AB14" t="n">
-        <v>156.9595340067391</v>
+        <v>191.9688482607349</v>
       </c>
       <c r="AC14" t="n">
-        <v>141.9795363752685</v>
+        <v>173.6476108127552</v>
       </c>
       <c r="AD14" t="n">
-        <v>114716.0306188548</v>
+        <v>140303.0686495254</v>
       </c>
       <c r="AE14" t="n">
-        <v>156959.5340067391</v>
+        <v>191968.8482607349</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.389692495027424e-06</v>
+        <v>6.374575429417169e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7.037037037037037</v>
       </c>
       <c r="AH14" t="n">
-        <v>141979.5363752685</v>
+        <v>173647.6108127552</v>
       </c>
     </row>
     <row r="15">
@@ -35538,28 +35538,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>114.7814962423574</v>
+        <v>140.368534273028</v>
       </c>
       <c r="AB15" t="n">
-        <v>157.0491069609548</v>
+        <v>192.0584212149506</v>
       </c>
       <c r="AC15" t="n">
-        <v>142.0605606124504</v>
+        <v>173.7286350499371</v>
       </c>
       <c r="AD15" t="n">
-        <v>114781.4962423574</v>
+        <v>140368.534273028</v>
       </c>
       <c r="AE15" t="n">
-        <v>157049.1069609548</v>
+        <v>192058.4212149506</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.387076945673043e-06</v>
+        <v>6.370777209685888e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>7.042824074074074</v>
       </c>
       <c r="AH15" t="n">
-        <v>142060.5606124504</v>
+        <v>173728.6350499371</v>
       </c>
     </row>
   </sheetData>
@@ -35835,28 +35835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.18500244696796</v>
+        <v>104.647658328012</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.2396813929978</v>
+        <v>143.1835428531785</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.29119250218808</v>
+        <v>129.5183064826743</v>
       </c>
       <c r="AD2" t="n">
-        <v>76185.00244696796</v>
+        <v>104647.658328012</v>
       </c>
       <c r="AE2" t="n">
-        <v>104239.6813929978</v>
+        <v>143183.5428531785</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.288228087110603e-06</v>
+        <v>8.815161153651133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.505787037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>94291.19250218809</v>
+        <v>129518.3064826744</v>
       </c>
     </row>
   </sheetData>
@@ -36132,28 +36132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.8022835735985</v>
+        <v>166.4296475981057</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.4964785072597</v>
+        <v>227.7163862014797</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.9382181024121</v>
+        <v>205.9834539044314</v>
       </c>
       <c r="AD2" t="n">
-        <v>126802.2835735985</v>
+        <v>166429.6475981057</v>
       </c>
       <c r="AE2" t="n">
-        <v>173496.4785072597</v>
+        <v>227716.3862014797</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.925444986083698e-06</v>
+        <v>5.974160717525587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.668981481481483</v>
       </c>
       <c r="AH2" t="n">
-        <v>156938.2181024121</v>
+        <v>205983.4539044314</v>
       </c>
     </row>
     <row r="3">
@@ -36238,28 +36238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.9254903612913</v>
+        <v>136.5250620639622</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.5636848981953</v>
+        <v>186.7996129764825</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.8621683044476</v>
+        <v>168.9717200889631</v>
       </c>
       <c r="AD3" t="n">
-        <v>104925.4903612913</v>
+        <v>136525.0620639622</v>
       </c>
       <c r="AE3" t="n">
-        <v>143563.6848981953</v>
+        <v>186799.6129764825</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.578402281104615e-06</v>
+        <v>6.967900748519502e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.430555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>129862.1683044476</v>
+        <v>168971.7200889631</v>
       </c>
     </row>
     <row r="4">
@@ -36344,28 +36344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.7570519400391</v>
+        <v>124.5847643760374</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.8602435517166</v>
+        <v>170.4623709111156</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.7030553952448</v>
+        <v>154.1936814768463</v>
       </c>
       <c r="AD4" t="n">
-        <v>100757.0519400391</v>
+        <v>124584.7643760374</v>
       </c>
       <c r="AE4" t="n">
-        <v>137860.2435517166</v>
+        <v>170462.3709111156</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.789979962276873e-06</v>
+        <v>7.289902222504114e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.100694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>124703.0553952448</v>
+        <v>154193.6814768463</v>
       </c>
     </row>
     <row r="5">
@@ -36450,28 +36450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.7987502426047</v>
+        <v>121.4835732912962</v>
       </c>
       <c r="AB5" t="n">
-        <v>122.8666117231434</v>
+        <v>166.2191844540799</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.1403947446915</v>
+        <v>150.3554587799191</v>
       </c>
       <c r="AD5" t="n">
-        <v>89798.7502426047</v>
+        <v>121483.5732912962</v>
       </c>
       <c r="AE5" t="n">
-        <v>122866.6117231434</v>
+        <v>166219.1844540799</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.911024265009209e-06</v>
+        <v>7.47412034835416e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>111140.3947446915</v>
+        <v>150355.4587799191</v>
       </c>
     </row>
     <row r="6">
@@ -36556,28 +36556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.71449616529083</v>
+        <v>120.3993192139823</v>
       </c>
       <c r="AB6" t="n">
-        <v>121.3830874606494</v>
+        <v>164.7356601915859</v>
       </c>
       <c r="AC6" t="n">
-        <v>109.79845595567</v>
+        <v>149.0135199908977</v>
       </c>
       <c r="AD6" t="n">
-        <v>88714.49616529082</v>
+        <v>120399.3192139823</v>
       </c>
       <c r="AE6" t="n">
-        <v>121383.0874606494</v>
+        <v>164735.6601915859</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.949295193167905e-06</v>
+        <v>7.53236512733832e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.875000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>109798.45595567</v>
+        <v>149013.5199908977</v>
       </c>
     </row>
   </sheetData>
@@ -36853,28 +36853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.857495859775</v>
+        <v>195.6886016249303</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.8828576658</v>
+        <v>267.7497779149116</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.661055109695</v>
+        <v>242.1961148999642</v>
       </c>
       <c r="AD2" t="n">
-        <v>154857.495859775</v>
+        <v>195688.6016249303</v>
       </c>
       <c r="AE2" t="n">
-        <v>211882.8576658</v>
+        <v>267749.7779149116</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.44106300037876e-06</v>
+        <v>5.137199752066652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.519675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>191661.055109695</v>
+        <v>242196.1148999642</v>
       </c>
     </row>
     <row r="3">
@@ -36959,28 +36959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.466385719347</v>
+        <v>150.1312703314713</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.7226911923342</v>
+        <v>205.4162273916235</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.3835431206959</v>
+        <v>185.8115909529113</v>
       </c>
       <c r="AD3" t="n">
-        <v>117466.385719347</v>
+        <v>150131.2703314713</v>
       </c>
       <c r="AE3" t="n">
-        <v>160722.6911923342</v>
+        <v>205416.2273916235</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.169280589741105e-06</v>
+        <v>6.224363578800146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.858796296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>145383.5431206959</v>
+        <v>185811.5909529113</v>
       </c>
     </row>
     <row r="4">
@@ -37065,28 +37065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.5456949222525</v>
+        <v>144.0399873337846</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.6217408413103</v>
+        <v>197.0818652657528</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.0557361014159</v>
+        <v>178.2726486509803</v>
       </c>
       <c r="AD4" t="n">
-        <v>111545.6949222525</v>
+        <v>144039.9873337846</v>
       </c>
       <c r="AE4" t="n">
-        <v>152621.7408413103</v>
+        <v>197081.8652657527</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.429754501310008e-06</v>
+        <v>6.613227866894934e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>138055.7361014159</v>
+        <v>178272.6486509803</v>
       </c>
     </row>
     <row r="5">
@@ -37171,28 +37171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.3730552202646</v>
+        <v>132.8718081879089</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.2807952340674</v>
+        <v>181.8010698530828</v>
       </c>
       <c r="AC5" t="n">
-        <v>134.1290842503715</v>
+        <v>164.4502309057596</v>
       </c>
       <c r="AD5" t="n">
-        <v>108373.0552202646</v>
+        <v>132871.8081879089</v>
       </c>
       <c r="AE5" t="n">
-        <v>148280.7952340674</v>
+        <v>181801.0698530828</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.567915478741493e-06</v>
+        <v>6.819489867598841e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.170138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>134129.0842503715</v>
+        <v>164450.2309057596</v>
       </c>
     </row>
     <row r="6">
@@ -37277,28 +37277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>106.2731965448795</v>
+        <v>130.7719495125238</v>
       </c>
       <c r="AB6" t="n">
-        <v>145.4076759551803</v>
+        <v>178.9279505741957</v>
       </c>
       <c r="AC6" t="n">
-        <v>131.5301714430123</v>
+        <v>161.8513180984004</v>
       </c>
       <c r="AD6" t="n">
-        <v>106273.1965448795</v>
+        <v>130771.9495125238</v>
       </c>
       <c r="AE6" t="n">
-        <v>145407.6759551803</v>
+        <v>178927.9505741957</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.642005081141254e-06</v>
+        <v>6.930099027337233e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.054398148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>131530.1714430123</v>
+        <v>161851.3180984004</v>
       </c>
     </row>
     <row r="7">
@@ -37383,28 +37383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>95.83315205748603</v>
+        <v>128.4126958150387</v>
       </c>
       <c r="AB7" t="n">
-        <v>131.1231465052792</v>
+        <v>175.6999155823709</v>
       </c>
       <c r="AC7" t="n">
-        <v>118.6089374353422</v>
+        <v>158.9313622356188</v>
       </c>
       <c r="AD7" t="n">
-        <v>95833.15205748603</v>
+        <v>128412.6958150387</v>
       </c>
       <c r="AE7" t="n">
-        <v>131123.1465052792</v>
+        <v>175699.9155823709</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.714170278283877e-06</v>
+        <v>7.037835221887615e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.950231481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>118608.9374353422</v>
+        <v>158931.3622356188</v>
       </c>
     </row>
     <row r="8">
@@ -37489,28 +37489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>94.99125850237402</v>
+        <v>127.5708022599267</v>
       </c>
       <c r="AB8" t="n">
-        <v>129.9712306014532</v>
+        <v>174.5479996785449</v>
       </c>
       <c r="AC8" t="n">
-        <v>117.5669587686528</v>
+        <v>157.8893835689294</v>
       </c>
       <c r="AD8" t="n">
-        <v>94991.25850237402</v>
+        <v>127570.8022599267</v>
       </c>
       <c r="AE8" t="n">
-        <v>129971.2306014532</v>
+        <v>174547.9996785449</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.724471506425019e-06</v>
+        <v>7.053214035541079e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.93287037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>117566.9587686528</v>
+        <v>157889.3835689294</v>
       </c>
     </row>
     <row r="9">
@@ -37595,28 +37595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>95.02780837317719</v>
+        <v>127.6073521307299</v>
       </c>
       <c r="AB9" t="n">
-        <v>130.0212397471526</v>
+        <v>174.5980088242443</v>
       </c>
       <c r="AC9" t="n">
-        <v>117.6121951116749</v>
+        <v>157.9346199119515</v>
       </c>
       <c r="AD9" t="n">
-        <v>95027.80837317719</v>
+        <v>127607.3521307299</v>
       </c>
       <c r="AE9" t="n">
-        <v>130021.2397471526</v>
+        <v>174598.0088242443</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.722886702095613e-06</v>
+        <v>7.050848064209779e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.93287037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>117612.1951116749</v>
+        <v>157934.6199119515</v>
       </c>
     </row>
   </sheetData>
